--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>606061.6897457978</v>
+        <v>602039.5387221719</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7188651.785143422</v>
+        <v>7188651.78514343</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>382.2240687240703</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>58.45918939116213</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>32.39438158624694</v>
       </c>
       <c r="H4" t="n">
-        <v>65.42520756919141</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -882,7 +882,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>401.786627668425</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>307.8983817831772</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +986,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193206</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
         <v>105.9202115588047</v>
@@ -995,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -1071,10 +1071,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>165.4216953850578</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.235895272200375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>309.5860400669841</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>347.0448506597488</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>157.0264238519911</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>58.11593919665176</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>392.5647472501408</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>259.7749000598113</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>29.32409387799851</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.6071785205112</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>146.8918758661091</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>173.1394685730519</v>
+        <v>150.6489057252601</v>
       </c>
       <c r="T13" t="n">
         <v>234.3611079309557</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>263.2668843462906</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>29.32409387799851</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>100.7309207025677</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>213.6071785205112</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3733410194601</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1675,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>334.414022823652</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1767,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>84.72615330778409</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.9244067227928</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3013454496983</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>95.53064635889307</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>55.03713422511564</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>173.1394685730519</v>
       </c>
       <c r="T16" t="n">
-        <v>234.3611079309557</v>
+        <v>211.8705450831638</v>
       </c>
       <c r="U16" t="n">
         <v>279.9345215916506</v>
@@ -1833,7 +1833,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>209.4949966470801</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>403.1841787207852</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>292.8797285063938</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>29.32409387799851</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>189.9981669591969</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>45.49770164246586</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>95.53064635889307</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>55.03713422511564</v>
       </c>
       <c r="S19" t="n">
-        <v>173.1394685730519</v>
+        <v>151.0295349564095</v>
       </c>
       <c r="T19" t="n">
         <v>234.3611079309557</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>326.3046277992516</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>403.1841787207852</v>
@@ -2101,7 +2101,7 @@
         <v>292.8797285063938</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>29.32409387799851</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>100.7309207025677</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>109.687693282115</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>161.2212313368098</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.9244067227928</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3013454496983</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>95.53064635889307</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>55.03713422511564</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>108.7498977178402</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>234.3611079309557</v>
       </c>
       <c r="U22" t="n">
         <v>279.9345215916506</v>
@@ -2304,7 +2304,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2320,19 +2320,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>328.761142824593</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>100.7309207025677</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3733410194601</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>42.19290847509519</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2487,16 +2487,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.9244067227928</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3013454496983</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>95.53064635889307</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>125.8553379438514</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5186494550951</v>
+        <v>234.3611079309557</v>
       </c>
       <c r="U25" t="n">
         <v>279.9345215916506</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>403.1841787207852</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>29.32409387799851</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>100.7309207025677</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>128.3969022525723</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3733410194601</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>146.3685881673357</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>131.5138702084294</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.9244067227928</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>45.49770164246586</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.03713422511564</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>173.1394685730519</v>
@@ -2800,13 +2800,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>77.88374189763171</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>403.1841787207852</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.6071785205112</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3733410194601</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>112.4059672447285</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>115.7746062103145</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.9244067227928</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>173.1394685730519</v>
       </c>
       <c r="T31" t="n">
         <v>234.3611079309557</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>192.4194059530827</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>31.18802133963555</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>29.32409387799851</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>213.6071785205112</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3733410194601</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3097,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>294.9926546326357</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.9244067227928</v>
+        <v>100.5348358675813</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3013454496983</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>95.53064635889307</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>55.03713422511564</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.1394685730519</v>
       </c>
       <c r="T34" t="n">
         <v>234.3611079309557</v>
@@ -3246,13 +3246,13 @@
         <v>279.9345215916506</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>119.0808308179376</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>27.93334000552985</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3283,10 +3283,10 @@
         <v>403.1841787207852</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>292.8797285063938</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>29.32409387799851</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>100.7309207025677</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.6071785205112</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3733410194601</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>116.0926709118794</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9244067227928</v>
+        <v>100.5348358675813</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3013454496983</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>95.53064635889307</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>55.03713422511564</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>173.1394685730519</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.4347927802092</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>403.1841787207852</v>
+        <v>318.4735084763314</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>292.8797285063938</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>100.7309207025677</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.6071785205112</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>129.3621779187612</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>158.6688856816318</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.9244067227928</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3013454496983</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>55.03713422511564</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.1394685730519</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>234.3611079309557</v>
@@ -3726,7 +3726,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>123.5584269310602</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>392.5647472501408</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>100.7309207025677</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>213.6071785205112</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3733410194601</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>283.8258956191452</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>4.805363842905538</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -3915,10 +3915,10 @@
         <v>164.9244067227928</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3013454496983</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>95.53064635889307</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>173.1394685730519</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>234.3611079309557</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9345215916506</v>
       </c>
       <c r="V43" t="n">
-        <v>53.14880448515805</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>260.233458901215</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>88.6356438330463</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>403.1841787207852</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>100.7309207025677</v>
       </c>
       <c r="T44" t="n">
         <v>213.6071785205112</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>164.9244067227928</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3013454496983</v>
       </c>
       <c r="I46" t="n">
-        <v>95.53064635889307</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>55.03713422511564</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>173.1394685730519</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>234.3611079309557</v>
+        <v>117.7275964093248</v>
       </c>
       <c r="U46" t="n">
         <v>279.9345215916506</v>
@@ -4200,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>130.5467467229798</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.033101815613</v>
+        <v>1023.43294323257</v>
       </c>
       <c r="C2" t="n">
-        <v>1671.948915169287</v>
+        <v>613.3083525458396</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.863997266186</v>
+        <v>208.8444226389001</v>
       </c>
       <c r="E2" t="n">
-        <v>871.5237817830823</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,16 +4333,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N2" t="n">
-        <v>733.4074053521598</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O2" t="n">
         <v>1250.250340018485</v>
@@ -4363,19 +4363,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1430.550391908565</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>1029.613718856655</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224.1971997769844</v>
+        <v>224.094138386011</v>
       </c>
       <c r="C4" t="n">
-        <v>224.1971997769844</v>
+        <v>224.094138386011</v>
       </c>
       <c r="D4" t="n">
-        <v>224.1971997769844</v>
+        <v>224.094138386011</v>
       </c>
       <c r="E4" t="n">
-        <v>224.1971997769844</v>
+        <v>224.094138386011</v>
       </c>
       <c r="F4" t="n">
-        <v>224.1971997769844</v>
+        <v>224.094138386011</v>
       </c>
       <c r="G4" t="n">
-        <v>224.1971997769844</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4515,25 +4515,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="W4" t="n">
-        <v>224.1971997769844</v>
+        <v>650.137706920372</v>
       </c>
       <c r="X4" t="n">
-        <v>224.1971997769844</v>
+        <v>411.7938447800554</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.1971997769844</v>
+        <v>411.7938447800554</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1277.096428763703</v>
+        <v>1378.723472461974</v>
       </c>
       <c r="C5" t="n">
-        <v>1271.012242117377</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D5" t="n">
-        <v>1270.588716250842</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E5" t="n">
-        <v>864.743637797887</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>443.7132257515746</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
@@ -4567,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>1846.479361096332</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
-        <v>2047.697635790537</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1384.904248086059</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1384.904248086059</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1384.904248086059</v>
       </c>
       <c r="Y5" t="n">
-        <v>1687.317608428192</v>
+        <v>1384.904248086059</v>
       </c>
     </row>
     <row r="6">
@@ -4634,13 +4634,13 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4649,25 +4649,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1075.450954962253</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N6" t="n">
-        <v>1592.293889628578</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>544.7399750317509</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>373.6466025934674</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>373.6466025934674</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>373.6466025934674</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>209.0154767040586</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U7" t="n">
-        <v>1101.974066676486</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V7" t="n">
-        <v>828.0883216160082</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W7" t="n">
-        <v>549.0186571248826</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X7" t="n">
-        <v>549.0186571248826</v>
+        <v>1318.798642324783</v>
       </c>
       <c r="Y7" t="n">
-        <v>544.7399750317509</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1277.096428763703</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="C8" t="n">
-        <v>1271.012242117377</v>
+        <v>910.4209518698425</v>
       </c>
       <c r="D8" t="n">
-        <v>1270.588716250842</v>
+        <v>909.9974260033071</v>
       </c>
       <c r="E8" t="n">
-        <v>957.8755444660092</v>
+        <v>495.6572105202038</v>
       </c>
       <c r="F8" t="n">
-        <v>536.8451324196967</v>
+        <v>478.6672025142954</v>
       </c>
       <c r="G8" t="n">
         <v>128.1168483125289</v>
@@ -4804,52 +4804,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>537.7254774811266</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>537.7254774811266</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M8" t="n">
-        <v>1054.568412147452</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1687.317608428192</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>497.5713418949007</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>497.5713418949007</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N9" t="n">
-        <v>1014.414276561226</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O9" t="n">
-        <v>1531.257211227551</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P9" t="n">
-        <v>2048.100145893876</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.3962115190108</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C10" t="n">
-        <v>206.3962115190108</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D10" t="n">
-        <v>206.3962115190108</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E10" t="n">
-        <v>206.3962115190108</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U10" t="n">
-        <v>1101.974066676486</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V10" t="n">
-        <v>828.0883216160082</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W10" t="n">
-        <v>669.4757722705626</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X10" t="n">
-        <v>431.1319101302461</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y10" t="n">
-        <v>206.3962115190108</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1691.724233752687</v>
+        <v>738.248201332309</v>
       </c>
       <c r="C11" t="n">
-        <v>1281.599643065957</v>
+        <v>738.248201332309</v>
       </c>
       <c r="D11" t="n">
-        <v>877.1357131590178</v>
+        <v>333.7842714253695</v>
       </c>
       <c r="E11" t="n">
-        <v>462.7954976759145</v>
+        <v>333.7842714253695</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>333.7842714253695</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>71.38538247606519</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>71.38538247606519</v>
       </c>
       <c r="I11" t="n">
         <v>41.76508562960205</v>
@@ -5044,25 +5044,25 @@
         <v>418.3600896773878</v>
       </c>
       <c r="K11" t="n">
-        <v>513.5752218405153</v>
+        <v>882.4373957303046</v>
       </c>
       <c r="L11" t="n">
-        <v>646.6432263392596</v>
+        <v>1015.505400229049</v>
       </c>
       <c r="M11" t="n">
-        <v>807.5331429685166</v>
+        <v>1176.395316858306</v>
       </c>
       <c r="N11" t="n">
-        <v>972.8950190474914</v>
+        <v>1341.757192937281</v>
       </c>
       <c r="O11" t="n">
-        <v>1123.640768712908</v>
+        <v>1492.502942602697</v>
       </c>
       <c r="P11" t="n">
-        <v>1480.192379891933</v>
+        <v>1607.188046968074</v>
       </c>
       <c r="Q11" t="n">
-        <v>1957.10062787077</v>
+        <v>2084.096294946911</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
@@ -5071,22 +5071,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1872.489454691707</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1872.489454691707</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1522.651900028188</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1138.891599163356</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>738.248201332309</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>738.248201332309</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>41.76508562960205</v>
       </c>
       <c r="I12" t="n">
-        <v>47.99799482402906</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>70.04872742744583</v>
+        <v>307.484222207652</v>
       </c>
       <c r="K12" t="n">
-        <v>586.8916620937711</v>
+        <v>824.3271568739773</v>
       </c>
       <c r="L12" t="n">
-        <v>698.8897130116859</v>
+        <v>1086.276532478866</v>
       </c>
       <c r="M12" t="n">
-        <v>837.4256874358755</v>
+        <v>1224.812506903056</v>
       </c>
       <c r="N12" t="n">
-        <v>1354.268622102201</v>
+        <v>1372.850617534474</v>
       </c>
       <c r="O12" t="n">
-        <v>1827.776703342344</v>
+        <v>1499.277550114285</v>
       </c>
       <c r="P12" t="n">
-        <v>1921.415570904378</v>
+        <v>1592.916417676319</v>
       </c>
       <c r="Q12" t="n">
-        <v>1963.793399519767</v>
+        <v>2041.264403295481</v>
       </c>
       <c r="R12" t="n">
         <v>2041.264403295481</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>190.140717817591</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C13" t="n">
         <v>41.76508562960205</v>
@@ -5211,10 +5211,10 @@
         <v>1078.058337655439</v>
       </c>
       <c r="N13" t="n">
-        <v>1333.629366897145</v>
+        <v>1457.897446407622</v>
       </c>
       <c r="O13" t="n">
-        <v>1684.632802282321</v>
+        <v>1808.900881792799</v>
       </c>
       <c r="P13" t="n">
         <v>1968.553376605832</v>
@@ -5226,25 +5226,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.36592938611</v>
+        <v>1936.083669636405</v>
       </c>
       <c r="T13" t="n">
-        <v>1676.63753753666</v>
+        <v>1699.355277786955</v>
       </c>
       <c r="U13" t="n">
-        <v>1393.875394514791</v>
+        <v>1416.593134765086</v>
       </c>
       <c r="V13" t="n">
-        <v>1119.989649454313</v>
+        <v>1142.707389704608</v>
       </c>
       <c r="W13" t="n">
-        <v>840.9199849631873</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="X13" t="n">
-        <v>602.5761228228707</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y13" t="n">
-        <v>377.8404242116354</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.76508562960205</v>
+        <v>337.3115282803991</v>
       </c>
       <c r="C14" t="n">
-        <v>41.76508562960205</v>
+        <v>337.3115282803991</v>
       </c>
       <c r="D14" t="n">
-        <v>41.76508562960205</v>
+        <v>337.3115282803991</v>
       </c>
       <c r="E14" t="n">
-        <v>41.76508562960205</v>
+        <v>337.3115282803991</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960205</v>
+        <v>337.3115282803991</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>71.38538247606519</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>71.38538247606519</v>
       </c>
       <c r="I14" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>91.58426278965864</v>
+        <v>418.3600896773878</v>
       </c>
       <c r="K14" t="n">
-        <v>186.799394952786</v>
+        <v>585.2977922563387</v>
       </c>
       <c r="L14" t="n">
-        <v>319.8673994515303</v>
+        <v>718.3657967550829</v>
       </c>
       <c r="M14" t="n">
-        <v>480.7573160807872</v>
+        <v>1235.208731421408</v>
       </c>
       <c r="N14" t="n">
-        <v>997.6002507471126</v>
+        <v>1752.051666087733</v>
       </c>
       <c r="O14" t="n">
-        <v>1365.507275526556</v>
+        <v>1902.79741575315</v>
       </c>
       <c r="P14" t="n">
-        <v>1480.192379891933</v>
+        <v>2017.482520118527</v>
       </c>
       <c r="Q14" t="n">
-        <v>1957.10062787077</v>
+        <v>2084.096294946911</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>1986.505876730034</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>1770.741049941639</v>
+        <v>1872.489454691707</v>
       </c>
       <c r="U14" t="n">
-        <v>1513.798281235113</v>
+        <v>1872.489454691707</v>
       </c>
       <c r="V14" t="n">
-        <v>1163.960726571594</v>
+        <v>1522.651900028188</v>
       </c>
       <c r="W14" t="n">
-        <v>780.2004257067626</v>
+        <v>1138.891599163356</v>
       </c>
       <c r="X14" t="n">
-        <v>379.5570278757152</v>
+        <v>738.248201332309</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.76508562960205</v>
+        <v>337.3115282803991</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="I15" t="n">
-        <v>47.99799482402906</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>70.04872742744583</v>
+        <v>307.484222207652</v>
       </c>
       <c r="K15" t="n">
-        <v>586.8916620937711</v>
+        <v>824.3271568739773</v>
       </c>
       <c r="L15" t="n">
-        <v>698.8897130116859</v>
+        <v>1341.170091540303</v>
       </c>
       <c r="M15" t="n">
-        <v>837.4256874358755</v>
+        <v>1479.706065964492</v>
       </c>
       <c r="N15" t="n">
-        <v>1354.268622102201</v>
+        <v>1778.820774538248</v>
       </c>
       <c r="O15" t="n">
-        <v>1871.111556768526</v>
+        <v>1905.247707118058</v>
       </c>
       <c r="P15" t="n">
         <v>1998.886574680092</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>534.171703648964</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C16" t="n">
-        <v>534.171703648964</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>448.5897306107983</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>448.5897306107983</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>448.5897306107983</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>281.9994207897954</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>138.2606880123223</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>97.01951689986063</v>
+        <v>101.5866915360686</v>
       </c>
       <c r="K16" t="n">
-        <v>326.7351649366225</v>
+        <v>331.3023395728305</v>
       </c>
       <c r="L16" t="n">
-        <v>682.8154373938133</v>
+        <v>563.1145325195436</v>
       </c>
       <c r="M16" t="n">
-        <v>1073.491163019231</v>
+        <v>953.7902581449614</v>
       </c>
       <c r="N16" t="n">
-        <v>1453.330271771414</v>
+        <v>1333.629366897145</v>
       </c>
       <c r="O16" t="n">
-        <v>1804.333707156591</v>
+        <v>1684.632802282321</v>
       </c>
       <c r="P16" t="n">
-        <v>2088.254281480102</v>
+        <v>1968.553376605832</v>
       </c>
       <c r="Q16" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="R16" t="n">
-        <v>2032.661216606248</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S16" t="n">
-        <v>2032.661216606248</v>
+        <v>1913.36592938611</v>
       </c>
       <c r="T16" t="n">
-        <v>1795.932824756798</v>
+        <v>1699.355277786955</v>
       </c>
       <c r="U16" t="n">
-        <v>1513.170681734929</v>
+        <v>1416.593134765086</v>
       </c>
       <c r="V16" t="n">
-        <v>1239.284936674451</v>
+        <v>1142.707389704608</v>
       </c>
       <c r="W16" t="n">
-        <v>960.2152721833249</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="X16" t="n">
-        <v>721.8714100430084</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y16" t="n">
-        <v>721.8714100430084</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1814.121771193986</v>
+        <v>478.3853956383206</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.121771193986</v>
+        <v>478.3853956383206</v>
       </c>
       <c r="D17" t="n">
-        <v>1409.657841287046</v>
+        <v>73.92146573138106</v>
       </c>
       <c r="E17" t="n">
-        <v>1198.046733562723</v>
+        <v>73.92146573138106</v>
       </c>
       <c r="F17" t="n">
-        <v>777.0163215164105</v>
+        <v>73.92146573138106</v>
       </c>
       <c r="G17" t="n">
-        <v>369.759575333799</v>
+        <v>73.92146573138106</v>
       </c>
       <c r="H17" t="n">
         <v>73.92146573138106</v>
@@ -5518,25 +5518,25 @@
         <v>94.1203460449745</v>
       </c>
       <c r="K17" t="n">
-        <v>189.3354782081019</v>
+        <v>234.1749340009494</v>
       </c>
       <c r="L17" t="n">
-        <v>322.4034827068462</v>
+        <v>782.4018989518086</v>
       </c>
       <c r="M17" t="n">
-        <v>483.2933993361031</v>
+        <v>1330.628863902668</v>
       </c>
       <c r="N17" t="n">
-        <v>944.0844733414904</v>
+        <v>1878.855828853527</v>
       </c>
       <c r="O17" t="n">
-        <v>1492.31143829235</v>
+        <v>2029.601578518943</v>
       </c>
       <c r="P17" t="n">
-        <v>1606.996542657726</v>
+        <v>2144.28668288432</v>
       </c>
       <c r="Q17" t="n">
-        <v>2083.904790636563</v>
+        <v>2210.900457712704</v>
       </c>
       <c r="R17" t="n">
         <v>2215.058444245896</v>
@@ -5545,22 +5545,22 @@
         <v>2215.058444245896</v>
       </c>
       <c r="T17" t="n">
-        <v>2215.058444245896</v>
+        <v>2023.141103883071</v>
       </c>
       <c r="U17" t="n">
-        <v>2215.058444245896</v>
+        <v>2023.141103883071</v>
       </c>
       <c r="V17" t="n">
-        <v>2215.058444245896</v>
+        <v>1673.303549219551</v>
       </c>
       <c r="W17" t="n">
-        <v>2215.058444245896</v>
+        <v>1289.54324835472</v>
       </c>
       <c r="X17" t="n">
-        <v>2215.058444245896</v>
+        <v>1289.54324835472</v>
       </c>
       <c r="Y17" t="n">
-        <v>1814.121771193986</v>
+        <v>888.60657530281</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>44.30116888491791</v>
       </c>
       <c r="J18" t="n">
-        <v>66.35190148833468</v>
+        <v>310.0203054629679</v>
       </c>
       <c r="K18" t="n">
-        <v>614.5788664391938</v>
+        <v>379.3612236848161</v>
       </c>
       <c r="L18" t="n">
-        <v>726.5769173571086</v>
+        <v>927.5881886356752</v>
       </c>
       <c r="M18" t="n">
-        <v>1274.803882307968</v>
+        <v>1475.815153586535</v>
       </c>
       <c r="N18" t="n">
-        <v>1703.88585401785</v>
+        <v>1623.853264217953</v>
       </c>
       <c r="O18" t="n">
-        <v>1830.312786597661</v>
+        <v>1907.783790373374</v>
       </c>
       <c r="P18" t="n">
-        <v>1923.951654159694</v>
+        <v>2001.422657935408</v>
       </c>
       <c r="Q18" t="n">
-        <v>1966.329482775083</v>
+        <v>2043.800486550797</v>
       </c>
       <c r="R18" t="n">
         <v>2043.800486550797</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>261.3518157095306</v>
+        <v>471.3847883830117</v>
       </c>
       <c r="C19" t="n">
-        <v>90.25844327124707</v>
+        <v>300.2914159447282</v>
       </c>
       <c r="D19" t="n">
-        <v>90.25844327124707</v>
+        <v>140.7967712676382</v>
       </c>
       <c r="E19" t="n">
-        <v>90.25844327124707</v>
+        <v>140.7967712676382</v>
       </c>
       <c r="F19" t="n">
-        <v>90.25844327124707</v>
+        <v>140.7967712676382</v>
       </c>
       <c r="G19" t="n">
-        <v>44.30116888491791</v>
+        <v>140.7967712676382</v>
       </c>
       <c r="H19" t="n">
-        <v>44.30116888491791</v>
+        <v>140.7967712676382</v>
       </c>
       <c r="I19" t="n">
         <v>44.30116888491791</v>
@@ -5700,25 +5700,25 @@
         <v>2159.465379372042</v>
       </c>
       <c r="S19" t="n">
-        <v>1984.57702727805</v>
+        <v>2006.910293557487</v>
       </c>
       <c r="T19" t="n">
-        <v>1747.8486354286</v>
+        <v>1770.181901708037</v>
       </c>
       <c r="U19" t="n">
-        <v>1465.08649240673</v>
+        <v>1487.419758686167</v>
       </c>
       <c r="V19" t="n">
-        <v>1191.200747346252</v>
+        <v>1213.534013625689</v>
       </c>
       <c r="W19" t="n">
-        <v>912.1310828551268</v>
+        <v>934.4643491345635</v>
       </c>
       <c r="X19" t="n">
-        <v>673.7872207148102</v>
+        <v>696.1204869942469</v>
       </c>
       <c r="Y19" t="n">
-        <v>449.0515221035749</v>
+        <v>471.3847883830117</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1481.460588717545</v>
+        <v>1191.356536999514</v>
       </c>
       <c r="C20" t="n">
-        <v>1481.460588717545</v>
+        <v>1191.356536999514</v>
       </c>
       <c r="D20" t="n">
-        <v>1076.996658810606</v>
+        <v>1191.356536999514</v>
       </c>
       <c r="E20" t="n">
-        <v>1076.996658810606</v>
+        <v>777.0163215164105</v>
       </c>
       <c r="F20" t="n">
-        <v>747.3960246699473</v>
+        <v>777.0163215164105</v>
       </c>
       <c r="G20" t="n">
-        <v>340.1392784873359</v>
+        <v>369.759575333799</v>
       </c>
       <c r="H20" t="n">
-        <v>44.30116888491791</v>
+        <v>73.92146573138106</v>
       </c>
       <c r="I20" t="n">
         <v>44.30116888491791</v>
@@ -5758,19 +5758,19 @@
         <v>516.1113050958311</v>
       </c>
       <c r="L20" t="n">
-        <v>1064.33827004669</v>
+        <v>649.1793095945754</v>
       </c>
       <c r="M20" t="n">
-        <v>1225.228186675947</v>
+        <v>1197.406274545435</v>
       </c>
       <c r="N20" t="n">
-        <v>1751.860161777386</v>
+        <v>1362.768150624409</v>
       </c>
       <c r="O20" t="n">
-        <v>1902.605911442802</v>
+        <v>1513.513900289826</v>
       </c>
       <c r="P20" t="n">
-        <v>2017.291015808179</v>
+        <v>1628.199004655203</v>
       </c>
       <c r="Q20" t="n">
         <v>2083.904790636563</v>
@@ -5779,25 +5779,25 @@
         <v>2215.058444245896</v>
       </c>
       <c r="S20" t="n">
-        <v>2215.058444245896</v>
+        <v>2113.310039495827</v>
       </c>
       <c r="T20" t="n">
-        <v>2215.058444245896</v>
+        <v>2113.310039495827</v>
       </c>
       <c r="U20" t="n">
-        <v>2215.058444245896</v>
+        <v>2113.310039495827</v>
       </c>
       <c r="V20" t="n">
-        <v>1865.220889582376</v>
+        <v>2113.310039495827</v>
       </c>
       <c r="W20" t="n">
-        <v>1481.460588717545</v>
+        <v>2113.310039495827</v>
       </c>
       <c r="X20" t="n">
-        <v>1481.460588717545</v>
+        <v>2002.514389715913</v>
       </c>
       <c r="Y20" t="n">
-        <v>1481.460588717545</v>
+        <v>1601.577716664003</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>310.0203054629679</v>
       </c>
       <c r="K21" t="n">
-        <v>858.247270413827</v>
+        <v>444.7554636517285</v>
       </c>
       <c r="L21" t="n">
-        <v>970.2453213317417</v>
+        <v>556.7535145696432</v>
       </c>
       <c r="M21" t="n">
-        <v>1108.781295755931</v>
+        <v>695.2894889938328</v>
       </c>
       <c r="N21" t="n">
-        <v>1256.819406387349</v>
+        <v>843.327599625251</v>
       </c>
       <c r="O21" t="n">
-        <v>1424.342629593887</v>
+        <v>969.7545322050617</v>
       </c>
       <c r="P21" t="n">
         <v>1517.981497155921</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1099.012128187333</v>
+        <v>381.9848511442043</v>
       </c>
       <c r="C22" t="n">
-        <v>936.1623995642933</v>
+        <v>210.8914787059208</v>
       </c>
       <c r="D22" t="n">
-        <v>776.6677548872033</v>
+        <v>210.8914787059208</v>
       </c>
       <c r="E22" t="n">
-        <v>615.7569397555228</v>
+        <v>210.8914787059208</v>
       </c>
       <c r="F22" t="n">
-        <v>451.1258138661141</v>
+        <v>210.8914787059208</v>
       </c>
       <c r="G22" t="n">
-        <v>284.5355040451112</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="H22" t="n">
-        <v>140.7967712676382</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="I22" t="n">
         <v>44.30116888491791</v>
@@ -5934,28 +5934,28 @@
         <v>2215.058444245896</v>
       </c>
       <c r="R22" t="n">
-        <v>2159.465379372042</v>
+        <v>2215.058444245896</v>
       </c>
       <c r="S22" t="n">
-        <v>2159.465379372042</v>
+        <v>2105.210062712724</v>
       </c>
       <c r="T22" t="n">
-        <v>2159.465379372042</v>
+        <v>1868.481670863273</v>
       </c>
       <c r="U22" t="n">
-        <v>1876.703236350173</v>
+        <v>1585.719527841404</v>
       </c>
       <c r="V22" t="n">
-        <v>1602.817491289695</v>
+        <v>1311.833782780926</v>
       </c>
       <c r="W22" t="n">
-        <v>1323.747826798569</v>
+        <v>1032.764118289801</v>
       </c>
       <c r="X22" t="n">
-        <v>1323.747826798569</v>
+        <v>794.420256149484</v>
       </c>
       <c r="Y22" t="n">
-        <v>1099.012128187333</v>
+        <v>569.6845575382487</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>858.8896894785873</v>
+        <v>797.4135433803142</v>
       </c>
       <c r="C23" t="n">
-        <v>448.7650987918574</v>
+        <v>797.4135433803142</v>
       </c>
       <c r="D23" t="n">
-        <v>44.30116888491791</v>
+        <v>797.4135433803142</v>
       </c>
       <c r="E23" t="n">
-        <v>44.30116888491791</v>
+        <v>797.4135433803142</v>
       </c>
       <c r="F23" t="n">
-        <v>44.30116888491791</v>
+        <v>376.3831313340017</v>
       </c>
       <c r="G23" t="n">
         <v>44.30116888491791</v>
@@ -5989,52 +5989,52 @@
         <v>44.30116888491791</v>
       </c>
       <c r="J23" t="n">
-        <v>94.1203460449745</v>
+        <v>420.8961729327037</v>
       </c>
       <c r="K23" t="n">
-        <v>189.3354782081019</v>
+        <v>516.1113050958311</v>
       </c>
       <c r="L23" t="n">
-        <v>322.4034827068462</v>
+        <v>1064.33827004669</v>
       </c>
       <c r="M23" t="n">
-        <v>870.6304476577054</v>
+        <v>1225.228186675947</v>
       </c>
       <c r="N23" t="n">
-        <v>1418.857412608565</v>
+        <v>1390.590062754922</v>
       </c>
       <c r="O23" t="n">
-        <v>1967.084377559424</v>
+        <v>1541.335812420338</v>
       </c>
       <c r="P23" t="n">
-        <v>2144.28668288432</v>
+        <v>1656.020916785715</v>
       </c>
       <c r="Q23" t="n">
-        <v>2210.900457712704</v>
+        <v>2083.904790636563</v>
       </c>
       <c r="R23" t="n">
         <v>2215.058444245896</v>
       </c>
       <c r="S23" t="n">
-        <v>2113.310039495827</v>
+        <v>2215.058444245896</v>
       </c>
       <c r="T23" t="n">
-        <v>2113.310039495827</v>
+        <v>2215.058444245896</v>
       </c>
       <c r="U23" t="n">
-        <v>2113.310039495827</v>
+        <v>1958.11567553937</v>
       </c>
       <c r="V23" t="n">
-        <v>2113.310039495827</v>
+        <v>1608.278120875851</v>
       </c>
       <c r="W23" t="n">
-        <v>2070.690940026034</v>
+        <v>1608.278120875851</v>
       </c>
       <c r="X23" t="n">
-        <v>1670.047542194987</v>
+        <v>1207.634723044804</v>
       </c>
       <c r="Y23" t="n">
-        <v>1269.110869143077</v>
+        <v>1207.634723044804</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>44.30116888491791</v>
       </c>
       <c r="I24" t="n">
-        <v>50.53407807934493</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="J24" t="n">
-        <v>316.2532146573949</v>
+        <v>310.0203054629679</v>
       </c>
       <c r="K24" t="n">
-        <v>864.480179608254</v>
+        <v>858.247270413827</v>
       </c>
       <c r="L24" t="n">
-        <v>1007.620778435573</v>
+        <v>1088.812615734182</v>
       </c>
       <c r="M24" t="n">
-        <v>1555.847743386432</v>
+        <v>1227.348590158372</v>
       </c>
       <c r="N24" t="n">
-        <v>1703.88585401785</v>
+        <v>1375.38670078979</v>
       </c>
       <c r="O24" t="n">
-        <v>1830.312786597661</v>
+        <v>1501.813633369601</v>
       </c>
       <c r="P24" t="n">
-        <v>1923.951654159694</v>
+        <v>1595.452500931635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1966.329482775083</v>
+        <v>2043.800486550797</v>
       </c>
       <c r="R24" t="n">
         <v>2043.800486550797</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1107.255772002577</v>
+        <v>364.7066286936884</v>
       </c>
       <c r="C25" t="n">
-        <v>936.1623995642933</v>
+        <v>364.7066286936884</v>
       </c>
       <c r="D25" t="n">
-        <v>776.6677548872033</v>
+        <v>205.2119840165984</v>
       </c>
       <c r="E25" t="n">
-        <v>615.7569397555228</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="F25" t="n">
-        <v>451.1258138661141</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="G25" t="n">
-        <v>284.5355040451112</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="H25" t="n">
-        <v>140.7967712676382</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="I25" t="n">
-        <v>44.30116888491791</v>
+        <v>44.30116888491779</v>
       </c>
       <c r="J25" t="n">
-        <v>104.1227747913845</v>
+        <v>104.1227747913844</v>
       </c>
       <c r="K25" t="n">
-        <v>333.8384228281464</v>
+        <v>333.8384228281463</v>
       </c>
       <c r="L25" t="n">
-        <v>689.9186952853374</v>
+        <v>689.9186952853371</v>
       </c>
       <c r="M25" t="n">
         <v>1080.594420910755</v>
@@ -6174,25 +6174,25 @@
         <v>2215.058444245896</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.058444245896</v>
+        <v>2087.931840262208</v>
       </c>
       <c r="T25" t="n">
-        <v>2040.797182170042</v>
+        <v>1851.203448412758</v>
       </c>
       <c r="U25" t="n">
-        <v>1758.035039148173</v>
+        <v>1568.441305390888</v>
       </c>
       <c r="V25" t="n">
-        <v>1758.035039148173</v>
+        <v>1294.55556033041</v>
       </c>
       <c r="W25" t="n">
-        <v>1758.035039148173</v>
+        <v>1015.485895839285</v>
       </c>
       <c r="X25" t="n">
-        <v>1519.691177007856</v>
+        <v>777.1420336989681</v>
       </c>
       <c r="Y25" t="n">
-        <v>1294.955478396621</v>
+        <v>552.4063350877328</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1273.22990496169</v>
+        <v>1726.673430130138</v>
       </c>
       <c r="C26" t="n">
-        <v>863.1053142749606</v>
+        <v>1316.548839443408</v>
       </c>
       <c r="D26" t="n">
-        <v>458.6413843680212</v>
+        <v>1316.548839443408</v>
       </c>
       <c r="E26" t="n">
-        <v>44.30116888491791</v>
+        <v>902.2086239603049</v>
       </c>
       <c r="F26" t="n">
-        <v>44.30116888491791</v>
+        <v>481.1782119139924</v>
       </c>
       <c r="G26" t="n">
-        <v>44.30116888491791</v>
+        <v>73.92146573138106</v>
       </c>
       <c r="H26" t="n">
-        <v>44.30116888491791</v>
+        <v>73.92146573138106</v>
       </c>
       <c r="I26" t="n">
         <v>44.30116888491791</v>
       </c>
       <c r="J26" t="n">
-        <v>94.1203460449745</v>
+        <v>420.8961729327037</v>
       </c>
       <c r="K26" t="n">
-        <v>189.3354782081019</v>
+        <v>969.1231378835628</v>
       </c>
       <c r="L26" t="n">
-        <v>737.5624431589611</v>
+        <v>1119.062175559813</v>
       </c>
       <c r="M26" t="n">
-        <v>1285.78940810982</v>
+        <v>1279.95209218907</v>
       </c>
       <c r="N26" t="n">
-        <v>1751.860161777386</v>
+        <v>1445.313968268045</v>
       </c>
       <c r="O26" t="n">
-        <v>1902.605911442802</v>
+        <v>1596.059717933461</v>
       </c>
       <c r="P26" t="n">
-        <v>2017.291015808179</v>
+        <v>2144.28668288432</v>
       </c>
       <c r="Q26" t="n">
-        <v>2083.904790636563</v>
+        <v>2210.900457712704</v>
       </c>
       <c r="R26" t="n">
         <v>2215.058444245896</v>
       </c>
       <c r="S26" t="n">
-        <v>2215.058444245896</v>
+        <v>2113.310039495827</v>
       </c>
       <c r="T26" t="n">
-        <v>2215.058444245896</v>
+        <v>1983.616198836663</v>
       </c>
       <c r="U26" t="n">
-        <v>2215.058444245896</v>
+        <v>1726.673430130138</v>
       </c>
       <c r="V26" t="n">
-        <v>2215.058444245896</v>
+        <v>1726.673430130138</v>
       </c>
       <c r="W26" t="n">
-        <v>1831.298143381064</v>
+        <v>1726.673430130138</v>
       </c>
       <c r="X26" t="n">
-        <v>1683.45108462618</v>
+        <v>1726.673430130138</v>
       </c>
       <c r="Y26" t="n">
-        <v>1683.45108462618</v>
+        <v>1726.673430130138</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>44.30116888491791</v>
       </c>
       <c r="I27" t="n">
-        <v>44.30116888491791</v>
+        <v>50.53407807934493</v>
       </c>
       <c r="J27" t="n">
-        <v>66.35190148833468</v>
+        <v>316.2532146573949</v>
       </c>
       <c r="K27" t="n">
-        <v>135.6928197101829</v>
+        <v>864.480179608254</v>
       </c>
       <c r="L27" t="n">
-        <v>683.9197846610421</v>
+        <v>976.4782305261688</v>
       </c>
       <c r="M27" t="n">
-        <v>822.4557590852316</v>
+        <v>1149.877586382658</v>
       </c>
       <c r="N27" t="n">
-        <v>970.4938697166498</v>
+        <v>1297.915697014076</v>
       </c>
       <c r="O27" t="n">
-        <v>1518.720834667509</v>
+        <v>1424.342629593887</v>
       </c>
       <c r="P27" t="n">
-        <v>1923.951654159694</v>
+        <v>1517.981497155921</v>
       </c>
       <c r="Q27" t="n">
         <v>1966.329482775083</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>261.3518157095306</v>
+        <v>504.644586977429</v>
       </c>
       <c r="C28" t="n">
-        <v>90.25844327124707</v>
+        <v>371.8022938376013</v>
       </c>
       <c r="D28" t="n">
-        <v>90.25844327124707</v>
+        <v>371.8022938376013</v>
       </c>
       <c r="E28" t="n">
-        <v>90.25844327124707</v>
+        <v>210.8914787059208</v>
       </c>
       <c r="F28" t="n">
-        <v>90.25844327124707</v>
+        <v>210.8914787059208</v>
       </c>
       <c r="G28" t="n">
-        <v>90.25844327124707</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="H28" t="n">
-        <v>90.25844327124707</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="I28" t="n">
         <v>44.30116888491791</v>
@@ -6390,7 +6390,7 @@
         <v>333.8384228281464</v>
       </c>
       <c r="L28" t="n">
-        <v>689.9186952853372</v>
+        <v>689.9186952853374</v>
       </c>
       <c r="M28" t="n">
         <v>1080.594420910755</v>
@@ -6408,28 +6408,28 @@
         <v>2215.058444245896</v>
       </c>
       <c r="R28" t="n">
-        <v>2159.465379372042</v>
+        <v>2215.058444245896</v>
       </c>
       <c r="S28" t="n">
-        <v>1984.57702727805</v>
+        <v>2040.170092151904</v>
       </c>
       <c r="T28" t="n">
-        <v>1747.8486354286</v>
+        <v>1803.441700302454</v>
       </c>
       <c r="U28" t="n">
-        <v>1465.08649240673</v>
+        <v>1520.679557280585</v>
       </c>
       <c r="V28" t="n">
-        <v>1191.200747346252</v>
+        <v>1246.793812220106</v>
       </c>
       <c r="W28" t="n">
-        <v>912.1310828551268</v>
+        <v>967.7241477289808</v>
       </c>
       <c r="X28" t="n">
-        <v>673.7872207148102</v>
+        <v>729.3802855886643</v>
       </c>
       <c r="Y28" t="n">
-        <v>449.0515221035749</v>
+        <v>504.644586977429</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2101.517063190614</v>
+        <v>1358.590547886144</v>
       </c>
       <c r="C29" t="n">
-        <v>1691.392472503885</v>
+        <v>948.465957199414</v>
       </c>
       <c r="D29" t="n">
-        <v>1286.928542596945</v>
+        <v>544.0020272924745</v>
       </c>
       <c r="E29" t="n">
-        <v>872.5883271138417</v>
+        <v>465.3315809312303</v>
       </c>
       <c r="F29" t="n">
-        <v>451.5579150675293</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="G29" t="n">
         <v>44.30116888491791</v>
@@ -6463,19 +6463,19 @@
         <v>44.30116888491791</v>
       </c>
       <c r="J29" t="n">
-        <v>94.1203460449745</v>
+        <v>420.8961729327037</v>
       </c>
       <c r="K29" t="n">
-        <v>189.3354782081019</v>
+        <v>516.1113050958311</v>
       </c>
       <c r="L29" t="n">
-        <v>737.5624431589611</v>
+        <v>1064.33827004669</v>
       </c>
       <c r="M29" t="n">
-        <v>1285.78940810982</v>
+        <v>1330.628863902668</v>
       </c>
       <c r="N29" t="n">
-        <v>1834.016373060679</v>
+        <v>1878.855828853527</v>
       </c>
       <c r="O29" t="n">
         <v>2029.601578518943</v>
@@ -6493,22 +6493,22 @@
         <v>2215.058444245896</v>
       </c>
       <c r="T29" t="n">
-        <v>2215.058444245896</v>
+        <v>1999.293617457501</v>
       </c>
       <c r="U29" t="n">
-        <v>2215.058444245896</v>
+        <v>1742.350848750975</v>
       </c>
       <c r="V29" t="n">
-        <v>2215.058444245896</v>
+        <v>1742.350848750975</v>
       </c>
       <c r="W29" t="n">
-        <v>2215.058444245896</v>
+        <v>1358.590547886144</v>
       </c>
       <c r="X29" t="n">
-        <v>2101.517063190614</v>
+        <v>1358.590547886144</v>
       </c>
       <c r="Y29" t="n">
-        <v>2101.517063190614</v>
+        <v>1358.590547886144</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>44.30116888491791</v>
       </c>
       <c r="J30" t="n">
-        <v>66.35190148833468</v>
+        <v>310.0203054629679</v>
       </c>
       <c r="K30" t="n">
-        <v>614.5788664391938</v>
+        <v>858.247270413827</v>
       </c>
       <c r="L30" t="n">
-        <v>1007.620778435573</v>
+        <v>1011.341611958469</v>
       </c>
       <c r="M30" t="n">
-        <v>1555.847743386432</v>
+        <v>1149.877586382658</v>
       </c>
       <c r="N30" t="n">
-        <v>1703.88585401785</v>
+        <v>1297.915697014076</v>
       </c>
       <c r="O30" t="n">
-        <v>1830.312786597661</v>
+        <v>1424.342629593887</v>
       </c>
       <c r="P30" t="n">
-        <v>1923.951654159694</v>
+        <v>1517.981497155921</v>
       </c>
       <c r="Q30" t="n">
         <v>1966.329482775083</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>491.8332326773767</v>
+        <v>535.0172492724196</v>
       </c>
       <c r="C31" t="n">
-        <v>320.7398602390932</v>
+        <v>535.0172492724196</v>
       </c>
       <c r="D31" t="n">
-        <v>161.2452155620032</v>
+        <v>375.5226045953295</v>
       </c>
       <c r="E31" t="n">
-        <v>44.30116888491791</v>
+        <v>375.5226045953295</v>
       </c>
       <c r="F31" t="n">
-        <v>44.30116888491791</v>
+        <v>210.8914787059208</v>
       </c>
       <c r="G31" t="n">
         <v>44.30116888491791</v>
@@ -6648,25 +6648,25 @@
         <v>2215.058444245896</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.058444245896</v>
+        <v>2040.170092151904</v>
       </c>
       <c r="T31" t="n">
-        <v>1978.330052396446</v>
+        <v>1803.441700302454</v>
       </c>
       <c r="U31" t="n">
-        <v>1695.567909374577</v>
+        <v>1520.679557280585</v>
       </c>
       <c r="V31" t="n">
-        <v>1421.682164314099</v>
+        <v>1246.793812220107</v>
       </c>
       <c r="W31" t="n">
-        <v>1142.612499822973</v>
+        <v>967.7241477289813</v>
       </c>
       <c r="X31" t="n">
-        <v>904.2686376826564</v>
+        <v>729.3802855886647</v>
       </c>
       <c r="Y31" t="n">
-        <v>679.5329390714211</v>
+        <v>535.0172492724196</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.4245175895988</v>
+        <v>465.3315809312303</v>
       </c>
       <c r="C32" t="n">
-        <v>73.92146573138106</v>
+        <v>465.3315809312303</v>
       </c>
       <c r="D32" t="n">
-        <v>73.92146573138106</v>
+        <v>465.3315809312303</v>
       </c>
       <c r="E32" t="n">
-        <v>73.92146573138106</v>
+        <v>465.3315809312303</v>
       </c>
       <c r="F32" t="n">
-        <v>73.92146573138106</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="G32" t="n">
-        <v>73.92146573138106</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="H32" t="n">
-        <v>73.92146573138106</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="I32" t="n">
         <v>44.30116888491791</v>
       </c>
       <c r="J32" t="n">
-        <v>94.1203460449745</v>
+        <v>420.8961729327037</v>
       </c>
       <c r="K32" t="n">
-        <v>189.3354782081019</v>
+        <v>969.1231378835628</v>
       </c>
       <c r="L32" t="n">
-        <v>322.4034827068462</v>
+        <v>1102.191142382307</v>
       </c>
       <c r="M32" t="n">
-        <v>870.6304476577054</v>
+        <v>1263.081059011564</v>
       </c>
       <c r="N32" t="n">
-        <v>1035.99232373668</v>
+        <v>1468.561355703074</v>
       </c>
       <c r="O32" t="n">
-        <v>1469.06405085732</v>
+        <v>1619.307105368491</v>
       </c>
       <c r="P32" t="n">
-        <v>2017.291015808179</v>
+        <v>1733.992209733868</v>
       </c>
       <c r="Q32" t="n">
-        <v>2083.904790636563</v>
+        <v>2210.900457712704</v>
       </c>
       <c r="R32" t="n">
         <v>2215.058444245896</v>
@@ -6733,19 +6733,19 @@
         <v>1897.545212707432</v>
       </c>
       <c r="U32" t="n">
-        <v>1640.602444000907</v>
+        <v>1897.545212707432</v>
       </c>
       <c r="V32" t="n">
-        <v>1290.764889337388</v>
+        <v>1547.707658043913</v>
       </c>
       <c r="W32" t="n">
-        <v>907.0045884725562</v>
+        <v>1163.947357179082</v>
       </c>
       <c r="X32" t="n">
-        <v>506.3611906415087</v>
+        <v>763.3039593480341</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.4245175895988</v>
+        <v>465.3315809312303</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>44.30116888491791</v>
       </c>
       <c r="I33" t="n">
-        <v>44.30116888491791</v>
+        <v>50.53407807934493</v>
       </c>
       <c r="J33" t="n">
-        <v>66.35190148833468</v>
+        <v>316.2532146573949</v>
       </c>
       <c r="K33" t="n">
-        <v>135.6928197101829</v>
+        <v>864.480179608254</v>
       </c>
       <c r="L33" t="n">
-        <v>247.6908706280977</v>
+        <v>976.4782305261688</v>
       </c>
       <c r="M33" t="n">
-        <v>795.9178355789568</v>
+        <v>1115.014204950358</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.144800529816</v>
+        <v>1263.052315581776</v>
       </c>
       <c r="O33" t="n">
-        <v>1892.371765480675</v>
+        <v>1389.479248161587</v>
       </c>
       <c r="P33" t="n">
-        <v>2001.422657935408</v>
+        <v>1517.981497155921</v>
       </c>
       <c r="Q33" t="n">
-        <v>2043.800486550797</v>
+        <v>1966.329482775083</v>
       </c>
       <c r="R33" t="n">
         <v>2043.800486550797</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1107.255772002577</v>
+        <v>316.9448805833846</v>
       </c>
       <c r="C34" t="n">
-        <v>936.1623995642933</v>
+        <v>145.8515081451011</v>
       </c>
       <c r="D34" t="n">
-        <v>776.6677548872033</v>
+        <v>145.8515081451011</v>
       </c>
       <c r="E34" t="n">
-        <v>615.7569397555228</v>
+        <v>145.8515081451011</v>
       </c>
       <c r="F34" t="n">
-        <v>451.1258138661141</v>
+        <v>145.8515081451011</v>
       </c>
       <c r="G34" t="n">
-        <v>284.5355040451112</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="H34" t="n">
-        <v>140.7967712676382</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="I34" t="n">
         <v>44.30116888491791</v>
@@ -6882,28 +6882,28 @@
         <v>2215.058444245896</v>
       </c>
       <c r="R34" t="n">
-        <v>2159.465379372042</v>
+        <v>2215.058444245896</v>
       </c>
       <c r="S34" t="n">
-        <v>2159.465379372042</v>
+        <v>2040.170092151904</v>
       </c>
       <c r="T34" t="n">
-        <v>1922.736987522592</v>
+        <v>1803.441700302454</v>
       </c>
       <c r="U34" t="n">
-        <v>1639.974844500723</v>
+        <v>1520.679557280585</v>
       </c>
       <c r="V34" t="n">
-        <v>1639.974844500723</v>
+        <v>1246.793812220106</v>
       </c>
       <c r="W34" t="n">
-        <v>1639.974844500723</v>
+        <v>967.7241477289808</v>
       </c>
       <c r="X34" t="n">
-        <v>1519.691177007856</v>
+        <v>729.3802855886643</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.955478396621</v>
+        <v>504.644586977429</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1286.928542596945</v>
+        <v>1640.602444000907</v>
       </c>
       <c r="C35" t="n">
-        <v>1286.928542596945</v>
+        <v>1640.602444000907</v>
       </c>
       <c r="D35" t="n">
-        <v>1286.928542596945</v>
+        <v>1612.386949045826</v>
       </c>
       <c r="E35" t="n">
-        <v>872.5883271138417</v>
+        <v>1198.046733562723</v>
       </c>
       <c r="F35" t="n">
-        <v>451.5579150675293</v>
+        <v>777.0163215164105</v>
       </c>
       <c r="G35" t="n">
-        <v>44.30116888491791</v>
+        <v>369.759575333799</v>
       </c>
       <c r="H35" t="n">
-        <v>44.30116888491791</v>
+        <v>73.92146573138106</v>
       </c>
       <c r="I35" t="n">
         <v>44.30116888491791</v>
       </c>
       <c r="J35" t="n">
-        <v>94.1203460449745</v>
+        <v>420.8961729327037</v>
       </c>
       <c r="K35" t="n">
-        <v>642.3473109958336</v>
+        <v>516.1113050958311</v>
       </c>
       <c r="L35" t="n">
-        <v>775.415315494578</v>
+        <v>649.1793095945754</v>
       </c>
       <c r="M35" t="n">
-        <v>936.3052321238349</v>
+        <v>810.0692262238324</v>
       </c>
       <c r="N35" t="n">
-        <v>1101.66710820281</v>
+        <v>975.4311023028072</v>
       </c>
       <c r="O35" t="n">
-        <v>1469.06405085732</v>
+        <v>1126.176851968224</v>
       </c>
       <c r="P35" t="n">
-        <v>2017.291015808179</v>
+        <v>1606.996542657726</v>
       </c>
       <c r="Q35" t="n">
         <v>2083.904790636563</v>
@@ -6964,25 +6964,25 @@
         <v>2215.058444245896</v>
       </c>
       <c r="S35" t="n">
-        <v>2215.058444245896</v>
+        <v>2113.310039495827</v>
       </c>
       <c r="T35" t="n">
-        <v>2215.058444245896</v>
+        <v>1897.545212707432</v>
       </c>
       <c r="U35" t="n">
-        <v>2215.058444245896</v>
+        <v>1640.602444000907</v>
       </c>
       <c r="V35" t="n">
-        <v>2215.058444245896</v>
+        <v>1640.602444000907</v>
       </c>
       <c r="W35" t="n">
-        <v>2097.793120092482</v>
+        <v>1640.602444000907</v>
       </c>
       <c r="X35" t="n">
-        <v>1697.149722261435</v>
+        <v>1640.602444000907</v>
       </c>
       <c r="Y35" t="n">
-        <v>1697.149722261435</v>
+        <v>1640.602444000907</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>44.30116888491791</v>
       </c>
       <c r="I36" t="n">
-        <v>50.53407807934493</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="J36" t="n">
-        <v>316.2532146573949</v>
+        <v>310.0203054629679</v>
       </c>
       <c r="K36" t="n">
-        <v>864.480179608254</v>
+        <v>858.247270413827</v>
       </c>
       <c r="L36" t="n">
-        <v>1412.707144559113</v>
+        <v>1088.812615734182</v>
       </c>
       <c r="M36" t="n">
-        <v>1551.243118983303</v>
+        <v>1227.348590158372</v>
       </c>
       <c r="N36" t="n">
-        <v>1699.281229614721</v>
+        <v>1375.38670078979</v>
       </c>
       <c r="O36" t="n">
-        <v>1825.708162194531</v>
+        <v>1501.813633369601</v>
       </c>
       <c r="P36" t="n">
-        <v>2001.422657935408</v>
+        <v>1595.452500931635</v>
       </c>
       <c r="Q36" t="n">
         <v>2043.800486550797</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>451.1258138661141</v>
+        <v>316.9448805833846</v>
       </c>
       <c r="C37" t="n">
-        <v>451.1258138661141</v>
+        <v>145.8515081451011</v>
       </c>
       <c r="D37" t="n">
-        <v>451.1258138661141</v>
+        <v>145.8515081451011</v>
       </c>
       <c r="E37" t="n">
-        <v>451.1258138661141</v>
+        <v>145.8515081451011</v>
       </c>
       <c r="F37" t="n">
-        <v>451.1258138661141</v>
+        <v>145.8515081451011</v>
       </c>
       <c r="G37" t="n">
-        <v>284.5355040451112</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="H37" t="n">
-        <v>140.7967712676382</v>
+        <v>44.30116888491791</v>
       </c>
       <c r="I37" t="n">
         <v>44.30116888491791</v>
@@ -7098,10 +7098,10 @@
         <v>104.1227747913845</v>
       </c>
       <c r="K37" t="n">
-        <v>333.8384228281463</v>
+        <v>333.8384228281464</v>
       </c>
       <c r="L37" t="n">
-        <v>689.9186952853371</v>
+        <v>689.9186952853372</v>
       </c>
       <c r="M37" t="n">
         <v>1080.594420910755</v>
@@ -7119,28 +7119,28 @@
         <v>2215.058444245896</v>
       </c>
       <c r="R37" t="n">
-        <v>2159.465379372042</v>
+        <v>2215.058444245896</v>
       </c>
       <c r="S37" t="n">
-        <v>1984.57702727805</v>
+        <v>2040.170092151904</v>
       </c>
       <c r="T37" t="n">
-        <v>1747.8486354286</v>
+        <v>1803.441700302454</v>
       </c>
       <c r="U37" t="n">
-        <v>1465.08649240673</v>
+        <v>1520.679557280585</v>
       </c>
       <c r="V37" t="n">
-        <v>1191.200747346252</v>
+        <v>1246.793812220106</v>
       </c>
       <c r="W37" t="n">
-        <v>912.1310828551268</v>
+        <v>967.7241477289808</v>
       </c>
       <c r="X37" t="n">
-        <v>673.7872207148102</v>
+        <v>729.3802855886643</v>
       </c>
       <c r="Y37" t="n">
-        <v>451.1258138661141</v>
+        <v>504.644586977429</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.5883271138417</v>
+        <v>1487.324033042943</v>
       </c>
       <c r="C38" t="n">
-        <v>872.5883271138417</v>
+        <v>1487.324033042943</v>
       </c>
       <c r="D38" t="n">
-        <v>872.5883271138417</v>
+        <v>1082.860103136003</v>
       </c>
       <c r="E38" t="n">
-        <v>872.5883271138417</v>
+        <v>1082.860103136003</v>
       </c>
       <c r="F38" t="n">
-        <v>451.5579150675293</v>
+        <v>661.8296910896909</v>
       </c>
       <c r="G38" t="n">
-        <v>44.30116888491791</v>
+        <v>340.1392784873359</v>
       </c>
       <c r="H38" t="n">
         <v>44.30116888491791</v>
@@ -7174,52 +7174,52 @@
         <v>44.30116888491791</v>
       </c>
       <c r="J38" t="n">
-        <v>94.1203460449745</v>
+        <v>420.8961729327037</v>
       </c>
       <c r="K38" t="n">
-        <v>189.3354782081019</v>
+        <v>877.3814041182948</v>
       </c>
       <c r="L38" t="n">
-        <v>737.5624431589611</v>
+        <v>1425.608369069154</v>
       </c>
       <c r="M38" t="n">
-        <v>1285.78940810982</v>
+        <v>1586.498285698411</v>
       </c>
       <c r="N38" t="n">
-        <v>1834.016373060679</v>
+        <v>1751.860161777386</v>
       </c>
       <c r="O38" t="n">
-        <v>2029.601578518943</v>
+        <v>1902.605911442802</v>
       </c>
       <c r="P38" t="n">
-        <v>2144.28668288432</v>
+        <v>2017.291015808179</v>
       </c>
       <c r="Q38" t="n">
-        <v>2210.900457712704</v>
+        <v>2083.904790636563</v>
       </c>
       <c r="R38" t="n">
         <v>2215.058444245896</v>
       </c>
       <c r="S38" t="n">
-        <v>2215.058444245896</v>
+        <v>2113.310039495827</v>
       </c>
       <c r="T38" t="n">
-        <v>2215.058444245896</v>
+        <v>1897.545212707432</v>
       </c>
       <c r="U38" t="n">
-        <v>2215.058444245896</v>
+        <v>1897.545212707432</v>
       </c>
       <c r="V38" t="n">
-        <v>2215.058444245896</v>
+        <v>1897.545212707432</v>
       </c>
       <c r="W38" t="n">
-        <v>2084.389577661289</v>
+        <v>1897.545212707432</v>
       </c>
       <c r="X38" t="n">
-        <v>1683.746179830241</v>
+        <v>1897.545212707432</v>
       </c>
       <c r="Y38" t="n">
-        <v>1282.809506778331</v>
+        <v>1897.545212707432</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>44.30116888491791</v>
       </c>
       <c r="I39" t="n">
-        <v>44.30116888491791</v>
+        <v>50.53407807934493</v>
       </c>
       <c r="J39" t="n">
-        <v>66.35190148833468</v>
+        <v>316.2532146573949</v>
       </c>
       <c r="K39" t="n">
-        <v>528.007770111775</v>
+        <v>864.480179608254</v>
       </c>
       <c r="L39" t="n">
-        <v>640.0058210296897</v>
+        <v>976.4782305261688</v>
       </c>
       <c r="M39" t="n">
-        <v>778.5417954538793</v>
+        <v>1115.014204950358</v>
       </c>
       <c r="N39" t="n">
-        <v>1326.768760404738</v>
+        <v>1263.052315581776</v>
       </c>
       <c r="O39" t="n">
-        <v>1453.195692984549</v>
+        <v>1389.479248161587</v>
       </c>
       <c r="P39" t="n">
-        <v>2001.422657935408</v>
+        <v>1517.981497155921</v>
       </c>
       <c r="Q39" t="n">
-        <v>2043.800486550797</v>
+        <v>1966.329482775083</v>
       </c>
       <c r="R39" t="n">
         <v>2043.800486550797</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>374.8891860002914</v>
+        <v>679.5329390714206</v>
       </c>
       <c r="C40" t="n">
-        <v>203.7958135620079</v>
+        <v>679.5329390714206</v>
       </c>
       <c r="D40" t="n">
-        <v>44.30116888491791</v>
+        <v>679.5329390714206</v>
       </c>
       <c r="E40" t="n">
-        <v>44.30116888491791</v>
+        <v>519.2613373728026</v>
       </c>
       <c r="F40" t="n">
-        <v>44.30116888491791</v>
+        <v>354.6302114833939</v>
       </c>
       <c r="G40" t="n">
-        <v>44.30116888491791</v>
+        <v>188.0399016623909</v>
       </c>
       <c r="H40" t="n">
         <v>44.30116888491791</v>
@@ -7356,28 +7356,28 @@
         <v>2215.058444245896</v>
       </c>
       <c r="R40" t="n">
-        <v>2159.465379372042</v>
+        <v>2215.058444245896</v>
       </c>
       <c r="S40" t="n">
-        <v>1984.57702727805</v>
+        <v>2215.058444245896</v>
       </c>
       <c r="T40" t="n">
-        <v>1747.8486354286</v>
+        <v>1978.330052396446</v>
       </c>
       <c r="U40" t="n">
-        <v>1465.08649240673</v>
+        <v>1695.567909374576</v>
       </c>
       <c r="V40" t="n">
-        <v>1191.200747346252</v>
+        <v>1421.682164314098</v>
       </c>
       <c r="W40" t="n">
-        <v>912.1310828551268</v>
+        <v>1142.612499822972</v>
       </c>
       <c r="X40" t="n">
-        <v>787.3245910055711</v>
+        <v>904.2686376826559</v>
       </c>
       <c r="Y40" t="n">
-        <v>562.5888923943357</v>
+        <v>679.5329390714206</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1691.724233752687</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C41" t="n">
-        <v>1281.599643065957</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D41" t="n">
-        <v>877.1357131590178</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E41" t="n">
-        <v>462.7954976759145</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F41" t="n">
         <v>41.76508562960205</v>
@@ -7411,22 +7411,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>91.58426278965864</v>
+        <v>418.3600896773878</v>
       </c>
       <c r="K41" t="n">
-        <v>539.0929799924586</v>
+        <v>935.2030243437131</v>
       </c>
       <c r="L41" t="n">
-        <v>672.160984491203</v>
+        <v>1425.799873379502</v>
       </c>
       <c r="M41" t="n">
-        <v>833.0509011204598</v>
+        <v>1586.689790008759</v>
       </c>
       <c r="N41" t="n">
-        <v>1349.893835786785</v>
+        <v>1752.051666087733</v>
       </c>
       <c r="O41" t="n">
-        <v>1500.639585452202</v>
+        <v>1902.79741575315</v>
       </c>
       <c r="P41" t="n">
         <v>2017.482520118527</v>
@@ -7438,25 +7438,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S41" t="n">
-        <v>2088.254281480102</v>
+        <v>1986.505876730034</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>1770.741049941639</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>1513.798281235113</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1227.105457377391</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.254281480102</v>
+        <v>843.3451565125595</v>
       </c>
       <c r="X41" t="n">
-        <v>2088.254281480102</v>
+        <v>442.7017586815119</v>
       </c>
       <c r="Y41" t="n">
-        <v>2088.254281480102</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>41.76508562960205</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>47.99799482402906</v>
       </c>
       <c r="J42" t="n">
-        <v>307.484222207652</v>
+        <v>313.7171314020791</v>
       </c>
       <c r="K42" t="n">
-        <v>566.6285693739192</v>
+        <v>830.5600660684044</v>
       </c>
       <c r="L42" t="n">
-        <v>678.6266202918339</v>
+        <v>942.5581169863192</v>
       </c>
       <c r="M42" t="n">
-        <v>817.1625947160235</v>
+        <v>1081.094091410509</v>
       </c>
       <c r="N42" t="n">
-        <v>965.2007053474416</v>
+        <v>1229.132202041927</v>
       </c>
       <c r="O42" t="n">
-        <v>1482.043640013767</v>
+        <v>1355.559134621737</v>
       </c>
       <c r="P42" t="n">
-        <v>1998.886574680092</v>
+        <v>1515.445413900605</v>
       </c>
       <c r="Q42" t="n">
-        <v>2041.264403295481</v>
+        <v>1963.793399519767</v>
       </c>
       <c r="R42" t="n">
         <v>2041.264403295481</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1104.719688747261</v>
+        <v>377.8404242116354</v>
       </c>
       <c r="C43" t="n">
-        <v>933.6263163089775</v>
+        <v>377.8404242116354</v>
       </c>
       <c r="D43" t="n">
-        <v>774.1316716318875</v>
+        <v>372.9865213400137</v>
       </c>
       <c r="E43" t="n">
-        <v>613.220856500207</v>
+        <v>372.9865213400137</v>
       </c>
       <c r="F43" t="n">
-        <v>448.5897306107983</v>
+        <v>208.3553954506049</v>
       </c>
       <c r="G43" t="n">
-        <v>281.9994207897954</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>138.2606880123223</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>97.01951689986063</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K43" t="n">
-        <v>326.7351649366225</v>
+        <v>207.0342600623528</v>
       </c>
       <c r="L43" t="n">
-        <v>682.8154373938133</v>
+        <v>563.1145325195436</v>
       </c>
       <c r="M43" t="n">
-        <v>1073.491163019231</v>
+        <v>953.7902581449614</v>
       </c>
       <c r="N43" t="n">
-        <v>1453.330271771414</v>
+        <v>1333.629366897145</v>
       </c>
       <c r="O43" t="n">
-        <v>1804.333707156591</v>
+        <v>1684.632802282321</v>
       </c>
       <c r="P43" t="n">
-        <v>2088.254281480102</v>
+        <v>1968.553376605832</v>
       </c>
       <c r="Q43" t="n">
         <v>2088.254281480102</v>
@@ -7596,25 +7596,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S43" t="n">
-        <v>2088.254281480102</v>
+        <v>1913.36592938611</v>
       </c>
       <c r="T43" t="n">
-        <v>2088.254281480102</v>
+        <v>1676.63753753666</v>
       </c>
       <c r="U43" t="n">
-        <v>2088.254281480102</v>
+        <v>1393.875394514791</v>
       </c>
       <c r="V43" t="n">
-        <v>2034.568620383983</v>
+        <v>1119.989649454313</v>
       </c>
       <c r="W43" t="n">
-        <v>1755.498955892857</v>
+        <v>840.9199849631873</v>
       </c>
       <c r="X43" t="n">
-        <v>1517.155093752541</v>
+        <v>602.5761228228707</v>
       </c>
       <c r="Y43" t="n">
-        <v>1292.419395141305</v>
+        <v>377.8404242116354</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>859.1464224989434</v>
+        <v>959.5831972252392</v>
       </c>
       <c r="C44" t="n">
-        <v>449.0218318122134</v>
+        <v>870.0522438585258</v>
       </c>
       <c r="D44" t="n">
-        <v>449.0218318122134</v>
+        <v>870.0522438585258</v>
       </c>
       <c r="E44" t="n">
-        <v>449.0218318122134</v>
+        <v>870.0522438585258</v>
       </c>
       <c r="F44" t="n">
         <v>449.0218318122134</v>
@@ -7648,25 +7648,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>91.58426278965864</v>
+        <v>418.3600896773878</v>
       </c>
       <c r="K44" t="n">
-        <v>480.2795654293564</v>
+        <v>585.2977922563387</v>
       </c>
       <c r="L44" t="n">
-        <v>613.3475699281007</v>
+        <v>718.3657967550829</v>
       </c>
       <c r="M44" t="n">
-        <v>774.2374865573577</v>
+        <v>1235.208731421408</v>
       </c>
       <c r="N44" t="n">
-        <v>939.5993626363324</v>
+        <v>1752.051666087733</v>
       </c>
       <c r="O44" t="n">
-        <v>1090.345112301749</v>
+        <v>1902.79741575315</v>
       </c>
       <c r="P44" t="n">
-        <v>1607.188046968074</v>
+        <v>2017.482520118527</v>
       </c>
       <c r="Q44" t="n">
         <v>2084.096294946911</v>
@@ -7675,25 +7675,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>2088.254281480102</v>
+        <v>1986.505876730034</v>
       </c>
       <c r="T44" t="n">
-        <v>1872.489454691707</v>
+        <v>1770.741049941639</v>
       </c>
       <c r="U44" t="n">
-        <v>1872.489454691707</v>
+        <v>1770.741049941639</v>
       </c>
       <c r="V44" t="n">
-        <v>1522.651900028188</v>
+        <v>1770.741049941639</v>
       </c>
       <c r="W44" t="n">
-        <v>1522.651900028188</v>
+        <v>1770.741049941639</v>
       </c>
       <c r="X44" t="n">
-        <v>1122.00850219714</v>
+        <v>1770.741049941639</v>
       </c>
       <c r="Y44" t="n">
-        <v>1122.00850219714</v>
+        <v>1369.804376889729</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>63.8158182330188</v>
+        <v>307.484222207652</v>
       </c>
       <c r="K45" t="n">
-        <v>200.6287737776338</v>
+        <v>824.3271568739773</v>
       </c>
       <c r="L45" t="n">
-        <v>717.4717084439591</v>
+        <v>1008.805528703153</v>
       </c>
       <c r="M45" t="n">
-        <v>856.0076828681487</v>
+        <v>1147.341503127342</v>
       </c>
       <c r="N45" t="n">
-        <v>1372.850617534474</v>
+        <v>1295.37961375876</v>
       </c>
       <c r="O45" t="n">
-        <v>1499.277550114285</v>
+        <v>1421.806546338571</v>
       </c>
       <c r="P45" t="n">
-        <v>1592.916417676319</v>
+        <v>1515.445413900605</v>
       </c>
       <c r="Q45" t="n">
-        <v>2041.264403295481</v>
+        <v>1963.793399519767</v>
       </c>
       <c r="R45" t="n">
         <v>2041.264403295481</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>465.7618129650057</v>
+        <v>670.5404041052543</v>
       </c>
       <c r="C46" t="n">
-        <v>465.7618129650057</v>
+        <v>670.5404041052543</v>
       </c>
       <c r="D46" t="n">
-        <v>465.7618129650057</v>
+        <v>511.0457594281643</v>
       </c>
       <c r="E46" t="n">
-        <v>304.8509978333252</v>
+        <v>350.1349442964838</v>
       </c>
       <c r="F46" t="n">
-        <v>304.8509978333252</v>
+        <v>185.5038184070751</v>
       </c>
       <c r="G46" t="n">
-        <v>138.2606880123223</v>
+        <v>185.5038184070751</v>
       </c>
       <c r="H46" t="n">
-        <v>138.2606880123223</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>101.5866915360686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K46" t="n">
-        <v>331.3023395728305</v>
+        <v>271.480733666364</v>
       </c>
       <c r="L46" t="n">
-        <v>563.1145325195436</v>
+        <v>627.5610061235548</v>
       </c>
       <c r="M46" t="n">
-        <v>953.7902581449614</v>
+        <v>1018.236731748973</v>
       </c>
       <c r="N46" t="n">
-        <v>1333.629366897145</v>
+        <v>1398.075840501156</v>
       </c>
       <c r="O46" t="n">
-        <v>1684.632802282321</v>
+        <v>1749.079275886332</v>
       </c>
       <c r="P46" t="n">
-        <v>1968.553376605832</v>
+        <v>2032.999850209844</v>
       </c>
       <c r="Q46" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="R46" t="n">
-        <v>2032.661216606248</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S46" t="n">
-        <v>1857.772864512256</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T46" t="n">
-        <v>1621.044472662806</v>
+        <v>1969.337517430279</v>
       </c>
       <c r="U46" t="n">
-        <v>1338.282329640936</v>
+        <v>1686.57537440841</v>
       </c>
       <c r="V46" t="n">
-        <v>1064.396584580458</v>
+        <v>1412.689629347932</v>
       </c>
       <c r="W46" t="n">
-        <v>785.3269200893328</v>
+        <v>1133.619964856806</v>
       </c>
       <c r="X46" t="n">
-        <v>653.4615193590502</v>
+        <v>895.2761027164896</v>
       </c>
       <c r="Y46" t="n">
-        <v>653.4615193590502</v>
+        <v>670.5404041052543</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>272.0504334731807</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>269.4773261669552</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
@@ -8060,7 +8060,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
@@ -8069,10 +8069,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>528.0883472030761</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491206</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>296.1630732760186</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>228.7885022587807</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8297,28 +8297,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>558.7215717793176</v>
+        <v>237.1384347635734</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>67.39425105392507</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>372.5880544341308</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>244.3096028420688</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.76545843403778</v>
+        <v>13.46959056087918</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>452.0222388328051</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>151.4659845322973</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>372.530125287785</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>350.5870188488211</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>10.60476030431057</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8859,13 +8859,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N13" t="n">
-        <v>209.8648706435433</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O13" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>263.5328115890082</v>
+        <v>138.009498952162</v>
       </c>
       <c r="Q13" t="n">
         <v>127.5494547533709</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>72.44704082406408</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>359.5485030677459</v>
       </c>
       <c r="N14" t="n">
         <v>355.0313723104551</v>
       </c>
       <c r="O14" t="n">
-        <v>219.3548233475019</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,28 +9002,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.76545843403778</v>
+        <v>13.46959056087918</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>452.0222388328051</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>408.9342260084954</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>372.530125287785</v>
+        <v>152.6026241841791</v>
       </c>
       <c r="O15" t="n">
-        <v>394.3595980671864</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>34.48095994902249</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9084,13 +9084,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>61.04463534861453</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>317.1506174091142</v>
+        <v>191.6273047722679</v>
       </c>
       <c r="M16" t="n">
         <v>348.4508580952379</v>
@@ -9105,7 +9105,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.639449829865974</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,28 +9166,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>45.29237958873485</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>419.3524853051666</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>391.2495437591943</v>
       </c>
       <c r="N17" t="n">
-        <v>298.4133312388005</v>
+        <v>386.7324130019035</v>
       </c>
       <c r="O17" t="n">
-        <v>401.4961770560027</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>13.46959056087918</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>483.7232795242535</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>440.6352666999438</v>
       </c>
       <c r="M18" t="n">
         <v>413.8292833602723</v>
       </c>
       <c r="N18" t="n">
-        <v>283.8826879580444</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>159.0945389652637</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>10.60476030431057</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9333,7 +9333,7 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>335.3881832803892</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
         <v>318.2573327462026</v>
@@ -9342,7 +9342,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>127.5494547533704</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9406,13 +9406,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>419.3524853051666</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>391.2495437591942</v>
       </c>
       <c r="N20" t="n">
-        <v>364.9192919418825</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>393.0222334878548</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9482,7 +9482,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>483.7232795242535</v>
+        <v>66.05478784536601</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>41.51140467346139</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>459.1798963523487</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>419.3524853051666</v>
       </c>
       <c r="M23" t="n">
-        <v>391.2495437591942</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>386.7324130019035</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>401.4961770560027</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>63.14868783789859</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>364.9192919418825</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.76545843403778</v>
+        <v>13.46959056087918</v>
       </c>
       <c r="J24" t="n">
         <v>246.129700984478</v>
@@ -9722,10 +9722,10 @@
         <v>483.7232795242535</v>
       </c>
       <c r="L24" t="n">
-        <v>31.45711910040791</v>
+        <v>119.7649438408491</v>
       </c>
       <c r="M24" t="n">
-        <v>413.8292833602723</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>10.60476030431057</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>457.5877098865978</v>
       </c>
       <c r="L26" t="n">
-        <v>419.3524853051666</v>
+        <v>17.04144765404627</v>
       </c>
       <c r="M26" t="n">
-        <v>391.2495437591942</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>303.7463409985764</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>437.9210712984669</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>13.46959056087918</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>483.7232795242535</v>
       </c>
       <c r="L27" t="n">
-        <v>440.6352666999438</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>35.21553680030277</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>426.0606387586348</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>314.7393453839916</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,13 +10120,13 @@
         <v>419.3524853051666</v>
       </c>
       <c r="M29" t="n">
-        <v>391.2495437591942</v>
+        <v>106.465330532041</v>
       </c>
       <c r="N29" t="n">
         <v>386.7324130019035</v>
       </c>
       <c r="O29" t="n">
-        <v>45.2923795887348</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>13.46959056087918</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>483.7232795242535</v>
       </c>
       <c r="L30" t="n">
-        <v>283.8826879580446</v>
+        <v>41.51140467346139</v>
       </c>
       <c r="M30" t="n">
-        <v>413.8292833602723</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>457.5877098865978</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>391.2495437591942</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>40.52365718437918</v>
       </c>
       <c r="O32" t="n">
-        <v>285.1777550052759</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>437.9210712984669</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>13.46959056087918</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>483.7232795242535</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>413.8292833602723</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>404.2311659792334</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>426.0606387586348</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>15.56770191181744</v>
+        <v>35.2155368003028</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>10.60476030431057</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>457.5877098865978</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>218.8395888778724</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>437.9210712984669</v>
+        <v>369.832915478915</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.76545843403778</v>
+        <v>13.46959056087918</v>
       </c>
       <c r="J36" t="n">
         <v>246.129700984478</v>
@@ -10670,7 +10670,7 @@
         <v>483.7232795242535</v>
       </c>
       <c r="L36" t="n">
-        <v>440.6352666999438</v>
+        <v>119.7649438408491</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>82.90467492812411</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>10.60476030431057</v>
@@ -10746,13 +10746,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047616</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4508580952379</v>
+        <v>348.4508580952378</v>
       </c>
       <c r="N37" t="n">
         <v>335.3881832803894</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>364.9192919418825</v>
       </c>
       <c r="L38" t="n">
         <v>419.3524853051666</v>
       </c>
       <c r="M38" t="n">
-        <v>391.2495437591942</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>386.7324130019035</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>45.2923795887348</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>13.46959056087918</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>396.2777276783759</v>
+        <v>483.7232795242535</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>404.2311659792334</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>459.1798963523487</v>
+        <v>35.2155368003028</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>10.60476030431057</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>355.8521061006794</v>
+        <v>425.8866691951494</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>361.1402470071154</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>355.0313723104551</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>406.2200306070185</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>13.46959056087918</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>191.7206352973929</v>
+        <v>452.0222388328051</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>394.3595980671864</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.4788556609003</v>
+        <v>66.91657749175081</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>10.60476030431057</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>61.04463534861453</v>
+        <v>5.23207850996949</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>143.266383819902</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
@@ -11238,7 +11238,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.639449829865974</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>296.4446166430004</v>
+        <v>72.44704082406408</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>359.5485030677459</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>355.0313723104551</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>406.2200306070185</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11375,19 +11375,19 @@
         <v>13.46959056087918</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>68.15357305329977</v>
+        <v>452.0222388328051</v>
       </c>
       <c r="L45" t="n">
-        <v>408.9342260084954</v>
+        <v>73.21244536490951</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>372.530125287785</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>10.60476030431057</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>5.23207850996949</v>
       </c>
       <c r="K46" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>191.6273047722679</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
@@ -11475,7 +11475,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>62.45200666851112</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.55422061770378</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>403.1841787207852</v>
+        <v>143.4092786609739</v>
       </c>
       <c r="H11" t="n">
         <v>292.8797285063938</v>
       </c>
       <c r="I11" t="n">
-        <v>29.32409387799851</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>100.7309207025677</v>
       </c>
       <c r="T11" t="n">
-        <v>213.6071785205112</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.3733410194601</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>22.49056284779158</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23466,7 +23466,7 @@
         <v>55.03713422511564</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>22.49056284779178</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>403.1841787207852</v>
+        <v>139.9172943744946</v>
       </c>
       <c r="H14" t="n">
         <v>292.8797285063938</v>
       </c>
       <c r="I14" t="n">
-        <v>29.32409387799851</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>100.7309207025677</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.3733410194601</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>62.51328349773883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>73.17354492253499</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23667,13 +23667,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.9244067227928</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3013454496983</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>95.53064635889307</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>55.03713422511564</v>
       </c>
       <c r="S16" t="n">
-        <v>173.1394685730519</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>22.49056284779186</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -23740,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>200.7018166811922</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>403.1841787207852</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>292.8797285063938</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>100.7309207025677</v>
       </c>
       <c r="T17" t="n">
-        <v>213.6071785205112</v>
+        <v>23.60901156131436</v>
       </c>
       <c r="U17" t="n">
         <v>254.3733410194601</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23904,13 +23904,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>119.426705080327</v>
+        <v>164.9244067227928</v>
       </c>
       <c r="H19" t="n">
         <v>142.3013454496983</v>
       </c>
       <c r="I19" t="n">
-        <v>95.53064635889307</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>22.10993361664242</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>90.51548012659765</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>29.32409387799851</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>100.7309207025677</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>213.6071785205112</v>
@@ -24028,16 +24028,16 @@
         <v>254.3733410194601</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>286.949270570622</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>8.161207377090903</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3013454496983</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>95.53064635889307</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>55.03713422511564</v>
       </c>
       <c r="S22" t="n">
-        <v>173.1394685730519</v>
+        <v>64.38957085521166</v>
       </c>
       <c r="T22" t="n">
-        <v>234.3611079309557</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>403.1841787207852</v>
+        <v>74.42303589619223</v>
       </c>
       <c r="H23" t="n">
         <v>292.8797285063938</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>100.7309207025677</v>
       </c>
       <c r="T23" t="n">
         <v>213.6071785205112</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3733410194601</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>337.7297893810879</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.9244067227928</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3013454496983</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>95.53064635889307</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>55.03713422511564</v>
       </c>
       <c r="S25" t="n">
-        <v>173.1394685730519</v>
+        <v>47.28413062920052</v>
       </c>
       <c r="T25" t="n">
-        <v>61.84245847586055</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>403.1841787207852</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>292.8797285063938</v>
       </c>
       <c r="I26" t="n">
-        <v>29.32409387799851</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>100.7309207025677</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>213.6071785205112</v>
+        <v>85.21027626793895</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3733410194601</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>250.2683756854013</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>37.8685685054713</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.9244067227928</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3013454496983</v>
       </c>
       <c r="I28" t="n">
-        <v>50.0329447164272</v>
+        <v>95.53064635889307</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>55.03713422511564</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>332.3130714306405</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>403.1841787207852</v>
       </c>
       <c r="H29" t="n">
         <v>292.8797285063938</v>
@@ -24733,19 +24733,19 @@
         <v>100.7309207025677</v>
       </c>
       <c r="T29" t="n">
-        <v>213.6071785205112</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3733410194601</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>284.2309966080085</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>43.52710077004926</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.9244067227928</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3013454496983</v>
@@ -24888,7 +24888,7 @@
         <v>55.03713422511564</v>
       </c>
       <c r="S31" t="n">
-        <v>173.1394685730519</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>30.06893567204025</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>374.835323440227</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -24928,7 +24928,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>403.1841787207852</v>
@@ -24937,7 +24937,7 @@
         <v>292.8797285063938</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>29.32409387799851</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3733410194601</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>101.9346516887551</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>64.3895708552115</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3013454496983</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>95.53064635889307</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>55.03713422511564</v>
       </c>
       <c r="S34" t="n">
-        <v>173.1394685730519</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>116.8795927009759</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>372.4859506023402</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>292.8797285063938</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>29.32409387799851</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>100.7309207025677</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>213.6071785205112</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3733410194601</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>263.8300269443037</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25326,13 +25326,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>64.3895708552115</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3013454496983</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>95.53064635889307</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>55.03713422511564</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.053548844913735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>84.71067024445381</v>
       </c>
       <c r="H38" t="n">
-        <v>292.8797285063938</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>29.32409387799851</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>100.7309207025677</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.6071785205112</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.3733410194601</v>
@@ -25453,13 +25453,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>250.5605199374219</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0.6328212987318693</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.9244067227928</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3013454496983</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>95.53064635889307</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>55.03713422511564</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>173.1394685730519</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>112.4019965878533</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>13.55422061770378</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>403.1841787207852</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>100.7309207025677</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>213.6071785205112</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3733410194601</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>62.51328349773888</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>153.0943343874135</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3013454496983</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>95.53064635889307</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>55.03713422511564</v>
       </c>
       <c r="S43" t="n">
-        <v>173.1394685730519</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>234.3611079309557</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9345215916506</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>217.9980831247152</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>145.8855089666295</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>317.3877009468163</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25876,7 +25876,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>100.7309207025677</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>254.3733410194601</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.9244067227928</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3013454496983</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>95.53064635889307</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>55.03713422511564</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>173.1394685730519</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>116.6335115216308</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>105.4136767959336</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>516299.8917102431</v>
+        <v>516299.891710243</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>534201.7219134303</v>
+        <v>534201.7219134304</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>534201.7219134301</v>
+        <v>534201.7219134304</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>534201.7219134301</v>
+        <v>534201.7219134304</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>374629.5039746511</v>
+      </c>
+      <c r="C2" t="n">
         <v>374629.5039746512</v>
       </c>
-      <c r="C2" t="n">
-        <v>374629.5039746511</v>
-      </c>
       <c r="D2" t="n">
-        <v>374629.5039746511</v>
+        <v>374629.503974651</v>
       </c>
       <c r="E2" t="n">
         <v>231961.2627584188</v>
       </c>
       <c r="F2" t="n">
-        <v>231961.2627584187</v>
+        <v>231961.2627584188</v>
       </c>
       <c r="G2" t="n">
         <v>239289.8857598936</v>
       </c>
       <c r="H2" t="n">
-        <v>239289.8857598935</v>
+        <v>239289.8857598936</v>
       </c>
       <c r="I2" t="n">
         <v>239289.8857598936</v>
       </c>
       <c r="J2" t="n">
-        <v>239289.8857598936</v>
+        <v>239289.8857598937</v>
       </c>
       <c r="K2" t="n">
-        <v>239289.8857598936</v>
+        <v>239289.8857598935</v>
       </c>
       <c r="L2" t="n">
         <v>239289.8857598936</v>
       </c>
       <c r="M2" t="n">
-        <v>239289.8857598937</v>
+        <v>239289.8857598936</v>
       </c>
       <c r="N2" t="n">
         <v>239289.8857598936</v>
       </c>
       <c r="O2" t="n">
-        <v>231961.2627584187</v>
+        <v>231961.2627584188</v>
       </c>
       <c r="P2" t="n">
         <v>231961.2627584188</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>242030.133815288</v>
+        <v>242030.1338152881</v>
       </c>
       <c r="C4" t="n">
-        <v>242030.133815288</v>
+        <v>242030.1338152881</v>
       </c>
       <c r="D4" t="n">
-        <v>242030.133815288</v>
+        <v>242030.1338152881</v>
       </c>
       <c r="E4" t="n">
-        <v>42741.7833719236</v>
+        <v>42741.78337192362</v>
       </c>
       <c r="F4" t="n">
-        <v>42741.78337192361</v>
+        <v>42741.78337192362</v>
       </c>
       <c r="G4" t="n">
+        <v>45687.23811227227</v>
+      </c>
+      <c r="H4" t="n">
         <v>45687.23811227226</v>
-      </c>
-      <c r="H4" t="n">
-        <v>45687.23811227227</v>
       </c>
       <c r="I4" t="n">
         <v>45687.23811227227</v>
       </c>
       <c r="J4" t="n">
-        <v>45687.23811227226</v>
+        <v>45687.23811227227</v>
       </c>
       <c r="K4" t="n">
         <v>45687.23811227227</v>
       </c>
       <c r="L4" t="n">
+        <v>45687.23811227227</v>
+      </c>
+      <c r="M4" t="n">
         <v>45687.23811227226</v>
-      </c>
-      <c r="M4" t="n">
-        <v>45687.23811227227</v>
       </c>
       <c r="N4" t="n">
         <v>45687.23811227227</v>
       </c>
       <c r="O4" t="n">
-        <v>42741.78337192362</v>
+        <v>42741.78337192361</v>
       </c>
       <c r="P4" t="n">
         <v>42741.78337192362</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-107725.2048122485</v>
+        <v>-107725.2048122486</v>
       </c>
       <c r="C6" t="n">
         <v>67230.30508086551</v>
       </c>
       <c r="D6" t="n">
-        <v>67230.30508086551</v>
+        <v>67230.30508086536</v>
       </c>
       <c r="E6" t="n">
-        <v>-141562.8514879803</v>
+        <v>-142183.1481889204</v>
       </c>
       <c r="F6" t="n">
-        <v>149578.0298504128</v>
+        <v>148957.7331494727</v>
       </c>
       <c r="G6" t="n">
-        <v>143344.9950995833</v>
+        <v>142756.5619769104</v>
       </c>
       <c r="H6" t="n">
-        <v>152033.7748374989</v>
+        <v>151445.3417148261</v>
       </c>
       <c r="I6" t="n">
-        <v>152033.774837499</v>
+        <v>151445.3417148261</v>
       </c>
       <c r="J6" t="n">
-        <v>15438.97403160399</v>
+        <v>14850.54090893118</v>
       </c>
       <c r="K6" t="n">
-        <v>152033.7748374989</v>
+        <v>151445.341714826</v>
       </c>
       <c r="L6" t="n">
-        <v>152033.774837499</v>
+        <v>151445.3417148261</v>
       </c>
       <c r="M6" t="n">
-        <v>152033.774837499</v>
+        <v>151445.3417148261</v>
       </c>
       <c r="N6" t="n">
-        <v>152033.774837499</v>
+        <v>151445.3417148261</v>
       </c>
       <c r="O6" t="n">
-        <v>149578.0298504128</v>
+        <v>148957.7331494728</v>
       </c>
       <c r="P6" t="n">
-        <v>149578.0298504128</v>
+        <v>148957.7331494727</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>351.7376239371101</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>18.19522188379977</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -27444,10 +27444,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27551,13 +27551,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>133.1835055774651</v>
       </c>
       <c r="H4" t="n">
-        <v>82.68617307340649</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8.41018565984723</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>38.44079733370694</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27684,7 +27684,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>70.53872813385567</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.2524463529226</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>100.6107732612882</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>57.59615060634729</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -27921,7 +27921,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>119.2525439942232</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>177.8444843222617</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
@@ -34780,7 +34780,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>474.8949538093261</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491206</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
-        <v>203.2507825193993</v>
-      </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35017,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>500.9700927793177</v>
+        <v>179.3869557635734</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.70163254908636</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>380.3989939876624</v>
       </c>
       <c r="K11" t="n">
-        <v>96.17690117487616</v>
+        <v>468.7649556090069</v>
       </c>
       <c r="L11" t="n">
         <v>134.4121257563074</v>
@@ -35427,13 +35427,13 @@
         <v>152.2684340054712</v>
       </c>
       <c r="P11" t="n">
-        <v>360.1531426050758</v>
+        <v>115.843539763007</v>
       </c>
       <c r="Q11" t="n">
         <v>481.7255030089259</v>
       </c>
       <c r="R11" t="n">
-        <v>132.478437989225</v>
+        <v>4.199986397163244</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>6.295867873158599</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>22.27346727617854</v>
+        <v>268.4031682606566</v>
       </c>
       <c r="K12" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L12" t="n">
-        <v>113.1293443615301</v>
+        <v>264.5953288938273</v>
       </c>
       <c r="M12" t="n">
         <v>139.9353277012016</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>149.5334450822405</v>
       </c>
       <c r="O12" t="n">
-        <v>478.2909911516602</v>
+        <v>127.7039723028391</v>
       </c>
       <c r="P12" t="n">
         <v>94.58471470912522</v>
       </c>
       <c r="Q12" t="n">
-        <v>42.80588749029152</v>
+        <v>452.876753150669</v>
       </c>
       <c r="R12" t="n">
-        <v>78.25353916738766</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35579,13 +35579,13 @@
         <v>394.6219450761797</v>
       </c>
       <c r="N13" t="n">
-        <v>258.1525547896015</v>
+        <v>383.6758674264477</v>
       </c>
       <c r="O13" t="n">
         <v>354.5489246314916</v>
       </c>
       <c r="P13" t="n">
-        <v>286.7884589126375</v>
+        <v>161.2651462757913</v>
       </c>
       <c r="Q13" t="n">
         <v>120.9100049235049</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>50.32240117177433</v>
+        <v>380.3989939876624</v>
       </c>
       <c r="K14" t="n">
-        <v>96.17690117487616</v>
+        <v>168.6239419989402</v>
       </c>
       <c r="L14" t="n">
         <v>134.4121257563074</v>
       </c>
       <c r="M14" t="n">
-        <v>162.5150673022797</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>371.6232573529732</v>
+        <v>152.2684340054712</v>
       </c>
       <c r="P14" t="n">
         <v>115.843539763007</v>
       </c>
       <c r="Q14" t="n">
-        <v>481.7255030089259</v>
+        <v>67.28664124079199</v>
       </c>
       <c r="R14" t="n">
-        <v>132.478437989225</v>
+        <v>4.199986397163244</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>6.295867873158599</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>22.27346727617854</v>
+        <v>268.4031682606566</v>
       </c>
       <c r="K15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L15" t="n">
-        <v>113.1293443615301</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
         <v>139.9353277012016</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>302.1360692664197</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>127.7039723028391</v>
       </c>
       <c r="P15" t="n">
-        <v>129.0656746581477</v>
+        <v>94.58471470912522</v>
       </c>
       <c r="Q15" t="n">
         <v>42.80588749029152</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>55.81255683864504</v>
+        <v>60.42586455198646</v>
       </c>
       <c r="K16" t="n">
         <v>232.0360081179413</v>
       </c>
       <c r="L16" t="n">
-        <v>359.6770428860513</v>
+        <v>234.1537302492051</v>
       </c>
       <c r="M16" t="n">
         <v>394.6219450761797</v>
@@ -35825,7 +35825,7 @@
         <v>286.7884589126375</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>120.9100049235049</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>50.32240117177433</v>
       </c>
       <c r="K17" t="n">
-        <v>96.17690117487616</v>
+        <v>141.469280763611</v>
       </c>
       <c r="L17" t="n">
-        <v>134.4121257563074</v>
+        <v>553.7646110614739</v>
       </c>
       <c r="M17" t="n">
-        <v>162.5150673022797</v>
+        <v>553.7646110614739</v>
       </c>
       <c r="N17" t="n">
-        <v>465.445529298371</v>
+        <v>553.7646110614739</v>
       </c>
       <c r="O17" t="n">
-        <v>553.7646110614739</v>
+        <v>152.2684340054712</v>
       </c>
       <c r="P17" t="n">
         <v>115.843539763007</v>
       </c>
       <c r="Q17" t="n">
-        <v>481.7255030089259</v>
+        <v>67.28664124079199</v>
       </c>
       <c r="R17" t="n">
-        <v>132.478437989225</v>
+        <v>4.199986397163244</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>22.27346727617854</v>
+        <v>268.4031682606566</v>
       </c>
       <c r="K18" t="n">
+        <v>70.04133153722043</v>
+      </c>
+      <c r="L18" t="n">
         <v>553.7646110614739</v>
-      </c>
-      <c r="L18" t="n">
-        <v>113.1293443615301</v>
       </c>
       <c r="M18" t="n">
         <v>553.7646110614739</v>
       </c>
       <c r="N18" t="n">
-        <v>433.4161330402849</v>
+        <v>149.5334450822405</v>
       </c>
       <c r="O18" t="n">
-        <v>127.7039723028391</v>
+        <v>286.7985112681029</v>
       </c>
       <c r="P18" t="n">
         <v>94.58471470912522</v>
@@ -35986,7 +35986,7 @@
         <v>42.80588749029152</v>
       </c>
       <c r="R18" t="n">
-        <v>78.25353916738766</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36053,7 +36053,7 @@
         <v>394.6219450761797</v>
       </c>
       <c r="N19" t="n">
-        <v>383.6758674264474</v>
+        <v>383.6758674264477</v>
       </c>
       <c r="O19" t="n">
         <v>354.5489246314916</v>
@@ -36062,7 +36062,7 @@
         <v>286.7884589126375</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.9100049235049</v>
+        <v>120.9100049235044</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,13 +36126,13 @@
         <v>96.17690117487616</v>
       </c>
       <c r="L20" t="n">
+        <v>134.4121257563074</v>
+      </c>
+      <c r="M20" t="n">
         <v>553.7646110614739</v>
       </c>
-      <c r="M20" t="n">
-        <v>162.5150673022797</v>
-      </c>
       <c r="N20" t="n">
-        <v>531.951490001453</v>
+        <v>167.0321980595705</v>
       </c>
       <c r="O20" t="n">
         <v>152.2684340054712</v>
@@ -36141,7 +36141,7 @@
         <v>115.843539763007</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.28664124079199</v>
+        <v>460.3088747286468</v>
       </c>
       <c r="R20" t="n">
         <v>132.478437989225</v>
@@ -36202,7 +36202,7 @@
         <v>268.4031682606566</v>
       </c>
       <c r="K21" t="n">
-        <v>553.7646110614739</v>
+        <v>136.0961193825864</v>
       </c>
       <c r="L21" t="n">
         <v>113.1293443615301</v>
@@ -36214,10 +36214,10 @@
         <v>149.5334450822405</v>
       </c>
       <c r="O21" t="n">
-        <v>169.2153769763005</v>
+        <v>127.7039723028391</v>
       </c>
       <c r="P21" t="n">
-        <v>94.58471470912522</v>
+        <v>553.7646110614739</v>
       </c>
       <c r="Q21" t="n">
         <v>452.876753150669</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>50.32240117177433</v>
+        <v>380.3989939876624</v>
       </c>
       <c r="K23" t="n">
         <v>96.17690117487616</v>
       </c>
       <c r="L23" t="n">
-        <v>134.4121257563074</v>
+        <v>553.7646110614739</v>
       </c>
       <c r="M23" t="n">
-        <v>553.7646110614739</v>
+        <v>162.5150673022797</v>
       </c>
       <c r="N23" t="n">
-        <v>553.7646110614739</v>
+        <v>167.0321980595705</v>
       </c>
       <c r="O23" t="n">
-        <v>553.7646110614739</v>
+        <v>152.2684340054712</v>
       </c>
       <c r="P23" t="n">
-        <v>178.9922276009056</v>
+        <v>115.843539763007</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.28664124079199</v>
+        <v>432.2059331826745</v>
       </c>
       <c r="R23" t="n">
-        <v>4.199986397163244</v>
+        <v>132.478437989225</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>6.295867873158599</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>268.4031682606566</v>
@@ -36442,10 +36442,10 @@
         <v>553.7646110614739</v>
       </c>
       <c r="L24" t="n">
-        <v>144.586463461938</v>
+        <v>232.8942882023792</v>
       </c>
       <c r="M24" t="n">
-        <v>553.7646110614739</v>
+        <v>139.9353277012016</v>
       </c>
       <c r="N24" t="n">
         <v>149.5334450822405</v>
@@ -36457,10 +36457,10 @@
         <v>94.58471470912522</v>
       </c>
       <c r="Q24" t="n">
-        <v>42.80588749029152</v>
+        <v>452.876753150669</v>
       </c>
       <c r="R24" t="n">
-        <v>78.25353916738766</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>50.32240117177433</v>
+        <v>380.3989939876624</v>
       </c>
       <c r="K26" t="n">
-        <v>96.17690117487616</v>
+        <v>553.7646110614739</v>
       </c>
       <c r="L26" t="n">
-        <v>553.7646110614739</v>
+        <v>151.4535734103536</v>
       </c>
       <c r="M26" t="n">
-        <v>553.7646110614739</v>
+        <v>162.5150673022797</v>
       </c>
       <c r="N26" t="n">
-        <v>470.7785390581469</v>
+        <v>167.0321980595705</v>
       </c>
       <c r="O26" t="n">
         <v>152.2684340054712</v>
       </c>
       <c r="P26" t="n">
-        <v>115.843539763007</v>
+        <v>553.7646110614739</v>
       </c>
       <c r="Q26" t="n">
         <v>67.28664124079199</v>
       </c>
       <c r="R26" t="n">
-        <v>132.478437989225</v>
+        <v>4.199986397163244</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.295867873158599</v>
       </c>
       <c r="J27" t="n">
-        <v>22.27346727617854</v>
+        <v>268.4031682606566</v>
       </c>
       <c r="K27" t="n">
-        <v>70.04133153722043</v>
+        <v>553.7646110614739</v>
       </c>
       <c r="L27" t="n">
-        <v>553.7646110614739</v>
+        <v>113.1293443615301</v>
       </c>
       <c r="M27" t="n">
-        <v>139.9353277012016</v>
+        <v>175.1508645015044</v>
       </c>
       <c r="N27" t="n">
         <v>149.5334450822405</v>
       </c>
       <c r="O27" t="n">
-        <v>553.7646110614739</v>
+        <v>127.7039723028391</v>
       </c>
       <c r="P27" t="n">
-        <v>409.3240600931168</v>
+        <v>94.58471470912522</v>
       </c>
       <c r="Q27" t="n">
-        <v>42.80588749029152</v>
+        <v>452.876753150669</v>
       </c>
       <c r="R27" t="n">
         <v>78.25353916738766</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>50.32240117177433</v>
+        <v>380.3989939876624</v>
       </c>
       <c r="K29" t="n">
         <v>96.17690117487616</v>
@@ -36840,13 +36840,13 @@
         <v>553.7646110614739</v>
       </c>
       <c r="M29" t="n">
-        <v>553.7646110614739</v>
+        <v>268.9803978343207</v>
       </c>
       <c r="N29" t="n">
         <v>553.7646110614739</v>
       </c>
       <c r="O29" t="n">
-        <v>197.5608135942061</v>
+        <v>152.2684340054712</v>
       </c>
       <c r="P29" t="n">
         <v>115.843539763007</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>22.27346727617854</v>
+        <v>268.4031682606566</v>
       </c>
       <c r="K30" t="n">
         <v>553.7646110614739</v>
       </c>
       <c r="L30" t="n">
-        <v>397.0120323195746</v>
+        <v>154.6407490349915</v>
       </c>
       <c r="M30" t="n">
-        <v>553.7646110614739</v>
+        <v>139.9353277012016</v>
       </c>
       <c r="N30" t="n">
         <v>149.5334450822405</v>
@@ -36931,7 +36931,7 @@
         <v>94.58471470912522</v>
       </c>
       <c r="Q30" t="n">
-        <v>42.80588749029152</v>
+        <v>452.876753150669</v>
       </c>
       <c r="R30" t="n">
         <v>78.25353916738766</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>50.32240117177433</v>
+        <v>380.3989939876624</v>
       </c>
       <c r="K32" t="n">
-        <v>96.17690117487616</v>
+        <v>553.7646110614739</v>
       </c>
       <c r="L32" t="n">
         <v>134.4121257563074</v>
       </c>
       <c r="M32" t="n">
-        <v>553.7646110614739</v>
+        <v>162.5150673022797</v>
       </c>
       <c r="N32" t="n">
-        <v>167.0321980595705</v>
+        <v>207.5558552439497</v>
       </c>
       <c r="O32" t="n">
-        <v>437.4461890107472</v>
+        <v>152.2684340054712</v>
       </c>
       <c r="P32" t="n">
-        <v>553.7646110614739</v>
+        <v>115.843539763007</v>
       </c>
       <c r="Q32" t="n">
-        <v>67.28664124079199</v>
+        <v>481.7255030089259</v>
       </c>
       <c r="R32" t="n">
-        <v>132.478437989225</v>
+        <v>4.199986397163244</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.295867873158599</v>
       </c>
       <c r="J33" t="n">
-        <v>22.27346727617854</v>
+        <v>268.4031682606566</v>
       </c>
       <c r="K33" t="n">
-        <v>70.04133153722043</v>
+        <v>553.7646110614739</v>
       </c>
       <c r="L33" t="n">
         <v>113.1293443615301</v>
       </c>
       <c r="M33" t="n">
-        <v>553.7646110614739</v>
+        <v>139.9353277012016</v>
       </c>
       <c r="N33" t="n">
-        <v>553.7646110614739</v>
+        <v>149.5334450822405</v>
       </c>
       <c r="O33" t="n">
-        <v>553.7646110614739</v>
+        <v>127.7039723028391</v>
       </c>
       <c r="P33" t="n">
-        <v>110.1524166209427</v>
+        <v>129.800251509428</v>
       </c>
       <c r="Q33" t="n">
-        <v>42.80588749029152</v>
+        <v>452.876753150669</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>78.25353916738766</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>50.32240117177433</v>
+        <v>380.3989939876624</v>
       </c>
       <c r="K35" t="n">
-        <v>553.7646110614739</v>
+        <v>96.17690117487616</v>
       </c>
       <c r="L35" t="n">
         <v>134.4121257563074</v>
@@ -37320,13 +37320,13 @@
         <v>167.0321980595705</v>
       </c>
       <c r="O35" t="n">
-        <v>371.1080228833437</v>
+        <v>152.2684340054712</v>
       </c>
       <c r="P35" t="n">
-        <v>553.7646110614739</v>
+        <v>485.676455241922</v>
       </c>
       <c r="Q35" t="n">
-        <v>67.28664124079199</v>
+        <v>481.7255030089259</v>
       </c>
       <c r="R35" t="n">
         <v>132.478437989225</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>6.295867873158599</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>268.4031682606566</v>
@@ -37390,7 +37390,7 @@
         <v>553.7646110614739</v>
       </c>
       <c r="L36" t="n">
-        <v>553.7646110614739</v>
+        <v>232.8942882023792</v>
       </c>
       <c r="M36" t="n">
         <v>139.9353277012016</v>
@@ -37402,10 +37402,10 @@
         <v>127.7039723028391</v>
       </c>
       <c r="P36" t="n">
-        <v>177.4893896372493</v>
+        <v>94.58471470912522</v>
       </c>
       <c r="Q36" t="n">
-        <v>42.80588749029152</v>
+        <v>452.876753150669</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>60.42586455198646</v>
       </c>
       <c r="K37" t="n">
-        <v>232.0360081179412</v>
+        <v>232.0360081179413</v>
       </c>
       <c r="L37" t="n">
         <v>359.6770428860513</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6219450761797</v>
+        <v>394.6219450761795</v>
       </c>
       <c r="N37" t="n">
         <v>383.6758674264477</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>50.32240117177433</v>
+        <v>380.3989939876624</v>
       </c>
       <c r="K38" t="n">
-        <v>96.17690117487616</v>
+        <v>461.0961931167587</v>
       </c>
       <c r="L38" t="n">
         <v>553.7646110614739</v>
       </c>
       <c r="M38" t="n">
-        <v>553.7646110614739</v>
+        <v>162.5150673022797</v>
       </c>
       <c r="N38" t="n">
-        <v>553.7646110614739</v>
+        <v>167.0321980595705</v>
       </c>
       <c r="O38" t="n">
-        <v>197.5608135942061</v>
+        <v>152.2684340054712</v>
       </c>
       <c r="P38" t="n">
         <v>115.843539763007</v>
@@ -37566,7 +37566,7 @@
         <v>67.28664124079199</v>
       </c>
       <c r="R38" t="n">
-        <v>4.199986397163244</v>
+        <v>132.478437989225</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.295867873158599</v>
       </c>
       <c r="J39" t="n">
-        <v>22.27346727617854</v>
+        <v>268.4031682606566</v>
       </c>
       <c r="K39" t="n">
-        <v>466.3190592155963</v>
+        <v>553.7646110614739</v>
       </c>
       <c r="L39" t="n">
         <v>113.1293443615301</v>
@@ -37633,19 +37633,19 @@
         <v>139.9353277012016</v>
       </c>
       <c r="N39" t="n">
-        <v>553.7646110614739</v>
+        <v>149.5334450822405</v>
       </c>
       <c r="O39" t="n">
         <v>127.7039723028391</v>
       </c>
       <c r="P39" t="n">
-        <v>553.7646110614739</v>
+        <v>129.800251509428</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.80588749029152</v>
+        <v>452.876753150669</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>78.25353916738766</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>50.32240117177433</v>
+        <v>380.3989939876624</v>
       </c>
       <c r="K41" t="n">
-        <v>452.0290072755556</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L41" t="n">
-        <v>134.4121257563074</v>
+        <v>495.5523727634227</v>
       </c>
       <c r="M41" t="n">
         <v>162.5150673022797</v>
       </c>
       <c r="N41" t="n">
-        <v>522.0635703700256</v>
+        <v>167.0321980595705</v>
       </c>
       <c r="O41" t="n">
         <v>152.2684340054712</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700256</v>
+        <v>115.843539763007</v>
       </c>
       <c r="Q41" t="n">
         <v>67.28664124079199</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.295867873158599</v>
       </c>
       <c r="J42" t="n">
         <v>268.4031682606566</v>
       </c>
       <c r="K42" t="n">
-        <v>261.7619668346133</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L42" t="n">
         <v>113.1293443615301</v>
@@ -37873,16 +37873,16 @@
         <v>149.5334450822405</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>127.7039723028391</v>
       </c>
       <c r="P42" t="n">
-        <v>522.0635703700256</v>
+        <v>161.501292200876</v>
       </c>
       <c r="Q42" t="n">
-        <v>42.80588749029152</v>
+        <v>452.876753150669</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>78.25353916738766</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>55.81255683864504</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>232.0360081179413</v>
+        <v>166.9385600330815</v>
       </c>
       <c r="L43" t="n">
         <v>359.6770428860513</v>
@@ -37958,7 +37958,7 @@
         <v>286.7884589126375</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>120.9100049235049</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>50.32240117177433</v>
+        <v>380.3989939876624</v>
       </c>
       <c r="K44" t="n">
-        <v>392.6215178178766</v>
+        <v>168.6239419989402</v>
       </c>
       <c r="L44" t="n">
         <v>134.4121257563074</v>
       </c>
       <c r="M44" t="n">
-        <v>162.5150673022797</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N44" t="n">
-        <v>167.0321980595705</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O44" t="n">
         <v>152.2684340054712</v>
       </c>
       <c r="P44" t="n">
-        <v>522.0635703700256</v>
+        <v>115.843539763007</v>
       </c>
       <c r="Q44" t="n">
-        <v>481.7255030089259</v>
+        <v>67.28664124079199</v>
       </c>
       <c r="R44" t="n">
         <v>4.199986397163244</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>22.27346727617854</v>
+        <v>268.4031682606566</v>
       </c>
       <c r="K45" t="n">
-        <v>138.1949045905202</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700256</v>
+        <v>186.3417897264396</v>
       </c>
       <c r="M45" t="n">
         <v>139.9353277012016</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>149.5334450822405</v>
       </c>
       <c r="O45" t="n">
         <v>127.7039723028391</v>
@@ -38119,7 +38119,7 @@
         <v>452.876753150669</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>78.25353916738766</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>60.42586455198646</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>232.0360081179413</v>
       </c>
       <c r="L46" t="n">
-        <v>234.1537302492051</v>
+        <v>359.6770428860513</v>
       </c>
       <c r="M46" t="n">
         <v>394.6219450761797</v>
@@ -38195,7 +38195,7 @@
         <v>286.7884589126375</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.9100049235049</v>
+        <v>55.81255683864514</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
